--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="200">
   <si>
     <t>sheet名</t>
   </si>
@@ -283,9 +283,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>告诉玩家，让守护灵吸收灵界精华，可以提升能力，引导玩家守护灵升级</t>
-  </si>
-  <si>
     <t>再次引导玩家抽奖，保底掉落于禁，自动分解成于禁精魄</t>
   </si>
   <si>
@@ -307,131 +304,1372 @@
     <t>通过1-6</t>
   </si>
   <si>
+    <t>通关1-7</t>
+  </si>
+  <si>
+    <t>把队伍派遣到挂机1-1</t>
+  </si>
+  <si>
+    <t>激活挂机关卡1-4</t>
+  </si>
+  <si>
+    <t>挂机点2-1</t>
+  </si>
+  <si>
+    <t>挂机点2-2</t>
+  </si>
+  <si>
+    <t>挂机点2-3</t>
+  </si>
+  <si>
+    <t>挂机点2-4</t>
+  </si>
+  <si>
+    <t>挂机点2-5</t>
+  </si>
+  <si>
+    <t>挂机点2-6</t>
+  </si>
+  <si>
+    <t>通过困难1-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难1-2</t>
+  </si>
+  <si>
+    <t>通过困难1-3</t>
+  </si>
+  <si>
+    <t>通过困难1-4</t>
+  </si>
+  <si>
+    <t>通过困难1-5</t>
+  </si>
+  <si>
+    <t>通过困难1-6</t>
+  </si>
+  <si>
+    <t>通过关卡2-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-4。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡2-5。</t>
+  </si>
+  <si>
+    <t>通过关卡2-6。</t>
+  </si>
+  <si>
+    <t>通过关卡2-7。</t>
+  </si>
+  <si>
+    <t>通过关卡2-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机点2-7</t>
+  </si>
+  <si>
+    <t>挂机点2-8</t>
+  </si>
+  <si>
+    <t>挂机点2-9</t>
+  </si>
+  <si>
+    <t>通关芦花古楼1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关芦花古楼2</t>
+  </si>
+  <si>
+    <t>通关芦花古楼3</t>
+  </si>
+  <si>
+    <t>通关芦花古楼4</t>
+  </si>
+  <si>
+    <t>激活神器1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>拥有3个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20级的守护灵</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点3-1</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-2</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-3</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-4</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-5</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-6</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-7</t>
+  </si>
+  <si>
+    <t>解锁挂机点3-8</t>
+  </si>
+  <si>
+    <t>拥有一张3突的守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难2-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难2-2</t>
+  </si>
+  <si>
+    <t>通关困难2-3</t>
+  </si>
+  <si>
+    <t>通关困难2-4</t>
+  </si>
+  <si>
+    <t>通关困难2-5</t>
+  </si>
+  <si>
+    <t>通关困难2-6</t>
+  </si>
+  <si>
+    <t>通关困难2-7</t>
+  </si>
+  <si>
+    <t>通关困难2-8</t>
+  </si>
+  <si>
+    <t>通关困难2-9</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>升级到3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>竞技场通关1场战斗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风-8</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-9</t>
+  </si>
+  <si>
+    <t>芦花古楼-风-10</t>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>神器1神级到2级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挂机点4-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难3-2</t>
+  </si>
+  <si>
+    <t>困难3-3</t>
+  </si>
+  <si>
+    <t>困难3-4</t>
+  </si>
+  <si>
+    <t>困难3-5</t>
+  </si>
+  <si>
+    <t>困难3-6</t>
+  </si>
+  <si>
+    <t>困难3-7</t>
+  </si>
+  <si>
+    <t>困难3-8</t>
+  </si>
+  <si>
+    <t>困难3-9</t>
+  </si>
+  <si>
+    <t>有一张4突的卡牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>升级到3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一个世界BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1神级到4级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁挂机点4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个专属武器强化到5级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通关芦花古楼-花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通关芦花古楼-花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通关芦花古楼-花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通关芦花古楼-花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>升级到4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换一次技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把于禁突破</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵李轩辕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把抽到的李轩辕上阵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过关卡1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级李轩辕到5级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把队伍派遣到挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道进阶到黑绳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡1-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道进阶到黑绳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把唐流雨升到5级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把唐流雨突破</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把队伍派遣到挂机1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>把李轩辕突破</t>
-  </si>
-  <si>
-    <t>通关1-7</t>
-  </si>
-  <si>
-    <t>把队伍派遣到挂机1-1</t>
-  </si>
-  <si>
-    <t>如果把李轩辕升级到5，并突破就可以解锁</t>
-  </si>
-  <si>
-    <t>牧守令扫荡</t>
-  </si>
-  <si>
-    <t>需要把唐流雨也突破</t>
-  </si>
-  <si>
-    <t>把唐流雨突破</t>
-  </si>
-  <si>
-    <t>激活挂机关卡1-4</t>
-  </si>
-  <si>
-    <t>所有卡牌升级到10级</t>
-  </si>
-  <si>
-    <t>挂机点2-1</t>
-  </si>
-  <si>
-    <t>挂机点2-2</t>
-  </si>
-  <si>
-    <t>挂机点2-3</t>
-  </si>
-  <si>
-    <t>挂机点2-4</t>
-  </si>
-  <si>
-    <t>挂机点2-5</t>
-  </si>
-  <si>
-    <t>挂机点2-6</t>
-  </si>
-  <si>
-    <t>通过困难1-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过困难1-2</t>
-  </si>
-  <si>
-    <t>通过困难1-3</t>
-  </si>
-  <si>
-    <t>通过困难1-4</t>
-  </si>
-  <si>
-    <t>通过困难1-5</t>
-  </si>
-  <si>
-    <t>通过困难1-6</t>
-  </si>
-  <si>
-    <t>通过关卡2-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-5。</t>
-  </si>
-  <si>
-    <t>通过关卡2-6。</t>
-  </si>
-  <si>
-    <t>通过关卡2-7。</t>
-  </si>
-  <si>
-    <t>通过关卡2-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一张卡牌升到15级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机点2-7</t>
-  </si>
-  <si>
-    <t>挂机点2-8</t>
-  </si>
-  <si>
-    <t>挂机点2-9</t>
-  </si>
-  <si>
-    <t>通关芦花古楼1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关芦花古楼2</t>
-  </si>
-  <si>
-    <t>通关芦花古楼3</t>
-  </si>
-  <si>
-    <t>通关芦花古楼4</t>
-  </si>
-  <si>
-    <t>激活神器1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>拥有3个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用牧守令扫荡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把等级升级到10级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把唐流雨突破+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把于禁升级到1</t>
     </r>
     <r>
       <rPr>
@@ -441,969 +1679,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20级的守护灵</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点3-1</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-2</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-3</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-4</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-5</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-6</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-7</t>
-  </si>
-  <si>
-    <t>解锁挂机点3-8</t>
-  </si>
-  <si>
-    <t>拥有一张3突的守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难2-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难2-2</t>
-  </si>
-  <si>
-    <t>通关困难2-3</t>
-  </si>
-  <si>
-    <t>通关困难2-4</t>
-  </si>
-  <si>
-    <t>通关困难2-5</t>
-  </si>
-  <si>
-    <t>通关困难2-6</t>
-  </si>
-  <si>
-    <t>通关困难2-7</t>
-  </si>
-  <si>
-    <t>通关困难2-8</t>
-  </si>
-  <si>
-    <t>通关困难2-9</t>
-  </si>
-  <si>
-    <t>芦花古楼-风-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>升级到3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0级</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过关卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>竞技场通关1场战斗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风-8</t>
-  </si>
-  <si>
-    <t>芦花古楼-风-9</t>
-  </si>
-  <si>
-    <t>芦花古楼-风-10</t>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>解锁挂机点4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>神器1神级到2级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点4-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难3-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难3-2</t>
-  </si>
-  <si>
-    <t>困难3-3</t>
-  </si>
-  <si>
-    <t>困难3-4</t>
-  </si>
-  <si>
-    <t>困难3-5</t>
-  </si>
-  <si>
-    <t>困难3-6</t>
-  </si>
-  <si>
-    <t>困难3-7</t>
-  </si>
-  <si>
-    <t>困难3-8</t>
-  </si>
-  <si>
-    <t>困难3-9</t>
-  </si>
-  <si>
-    <t>有一张4突的卡牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>升级到3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5级</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀一个世界BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一个专属武器强化到</t>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把3张卡牌升级到10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把1张卡牌升级到15</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2038,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2334,7 @@
     <col min="4" max="4" width="39.25" customWidth="1"/>
     <col min="5" max="5" width="62.375" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="17.125" customWidth="1"/>
@@ -2198,6 +2483,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
+        <f>A5</f>
         <v>10002</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2238,6 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" ref="C5:C75" si="0">A6</f>
         <v>10003</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2278,6 +2565,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>10004</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2318,6 +2606,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>10005</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2344,6 +2633,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>10006</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2370,6 +2660,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="0"/>
         <v>10007</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2388,7 +2679,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10007</v>
       </c>
@@ -2396,9 +2687,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="0"/>
         <v>10008</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>64</v>
       </c>
@@ -2420,9 +2714,12 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="0"/>
         <v>10009</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
@@ -2444,9 +2741,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2468,9 +2768,12 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
@@ -2492,9 +2795,12 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="0"/>
         <v>10012</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
@@ -2516,9 +2822,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="3">
+        <f t="shared" si="0"/>
         <v>10013</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>69</v>
       </c>
@@ -2540,11 +2849,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" si="0"/>
         <v>10014</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
+      <c r="D16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2564,11 +2876,14 @@
         <v>14</v>
       </c>
       <c r="C17" s="3">
+        <f>A19</f>
         <v>10015</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2581,16 +2896,14 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>10015</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
+      <c r="D18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2604,15 +2917,20 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <f>A20</f>
         <v>10016</v>
       </c>
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2626,15 +2944,20 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
         <v>10017</v>
       </c>
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2648,15 +2971,17 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B21" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>75</v>
+      <c r="D21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2669,16 +2994,12 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>10019</v>
-      </c>
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2692,15 +3013,15 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B23" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>77</v>
+      <c r="E23" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2713,16 +3034,12 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>10021</v>
-      </c>
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>78</v>
+      <c r="E24" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2735,16 +3052,12 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>10022</v>
-      </c>
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2757,16 +3070,11 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>10023</v>
-      </c>
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>80</v>
+      <c r="E26" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2780,15 +3088,15 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>10024</v>
+        <v>10021</v>
       </c>
       <c r="B27" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2801,16 +3109,12 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>10025</v>
-      </c>
-      <c r="B28" s="3">
-        <v>25</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
+      <c r="E28" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2823,16 +3127,12 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>10026</v>
-      </c>
-      <c r="B29" s="3">
-        <v>26</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>95</v>
+      <c r="E29" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2846,15 +3146,18 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>10027</v>
+        <v>10023</v>
       </c>
       <c r="B30" s="3">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="3">
+        <f>A32</f>
+        <v>10024</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="4" t="s">
-        <v>96</v>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2867,16 +3170,12 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>10028</v>
-      </c>
-      <c r="B31" s="3">
-        <v>28</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2890,15 +3189,18 @@
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>10029</v>
+        <v>10024</v>
       </c>
       <c r="B32" s="3">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <f>A34</f>
+        <v>10025</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="4" t="s">
-        <v>101</v>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2911,16 +3213,12 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>10030</v>
-      </c>
-      <c r="B33" s="3">
-        <v>30</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2934,15 +3232,18 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>10031</v>
+        <v>10025</v>
       </c>
       <c r="B34" s="3">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="3">
+        <f>A35</f>
+        <v>10026</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="4" t="s">
-        <v>99</v>
+      <c r="E34" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2956,15 +3257,18 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>10032</v>
+        <v>10026</v>
       </c>
       <c r="B35" s="3">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C35" s="3">
+        <f>A37</f>
+        <v>10027</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>87</v>
+      <c r="E35" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2977,16 +3281,12 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>10033</v>
-      </c>
-      <c r="B36" s="3">
-        <v>33</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>88</v>
+      <c r="E36" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3000,15 +3300,18 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>10034</v>
+        <v>10027</v>
       </c>
       <c r="B37" s="3">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <f>A39</f>
+        <v>10028</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>89</v>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3022,15 +3325,18 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>10035</v>
+        <v>10029</v>
       </c>
       <c r="B38" s="3">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="3">
+        <f>A40</f>
+        <v>10030</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>90</v>
+      <c r="E38" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3044,15 +3350,18 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>10036</v>
+        <v>10028</v>
       </c>
       <c r="B39" s="3">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C39" s="3">
+        <f>A38</f>
+        <v>10029</v>
+      </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>91</v>
+      <c r="E39" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3066,14 +3375,17 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>10037</v>
+        <v>10030</v>
       </c>
       <c r="B40" s="3">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>10031</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="3"/>
@@ -3088,15 +3400,18 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>10038</v>
+        <v>10031</v>
       </c>
       <c r="B41" s="3">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>10032</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="4" t="s">
-        <v>100</v>
+      <c r="E41" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3110,12 +3425,15 @@
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>10040</v>
+        <v>10032</v>
       </c>
       <c r="B42" s="3">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>10033</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>81</v>
@@ -3132,12 +3450,15 @@
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>10041</v>
+        <v>10033</v>
       </c>
       <c r="B43" s="3">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>10034</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
         <v>82</v>
@@ -3154,12 +3475,15 @@
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>10042</v>
+        <v>10034</v>
       </c>
       <c r="B44" s="3">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>10035</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
         <v>83</v>
@@ -3176,12 +3500,15 @@
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>10043</v>
+        <v>10035</v>
       </c>
       <c r="B45" s="3">
-        <v>43</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>10036</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>84</v>
@@ -3198,12 +3525,15 @@
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>10044</v>
+        <v>10036</v>
       </c>
       <c r="B46" s="3">
-        <v>44</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>10037</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>85</v>
@@ -3220,15 +3550,18 @@
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>10045</v>
+        <v>10037</v>
       </c>
       <c r="B47" s="3">
-        <v>45</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>10038</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>86</v>
+      <c r="E47" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3242,15 +3575,18 @@
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>10046</v>
+        <v>10038</v>
       </c>
       <c r="B48" s="3">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>10039</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3264,15 +3600,18 @@
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>10047</v>
+        <v>10039</v>
       </c>
       <c r="B49" s="3">
-        <v>47</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>10040</v>
+      </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="4" t="s">
-        <v>105</v>
+      <c r="E49" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3286,15 +3625,18 @@
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>10048</v>
+        <v>10040</v>
       </c>
       <c r="B50" s="3">
-        <v>48</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>10041</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="4" t="s">
-        <v>106</v>
+      <c r="E50" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3308,15 +3650,18 @@
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>10049</v>
+        <v>10041</v>
       </c>
       <c r="B51" s="3">
-        <v>49</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>10042</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="4" t="s">
-        <v>107</v>
+      <c r="E51" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3330,15 +3675,18 @@
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>10050</v>
+        <v>10042</v>
       </c>
       <c r="B52" s="3">
-        <v>50</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>10043</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="4" t="s">
-        <v>108</v>
+      <c r="E52" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3352,15 +3700,18 @@
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>10051</v>
+        <v>10043</v>
       </c>
       <c r="B53" s="3">
-        <v>51</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>10044</v>
+      </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="4" t="s">
-        <v>109</v>
+      <c r="E53" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3374,15 +3725,18 @@
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>10052</v>
+        <v>10044</v>
       </c>
       <c r="B54" s="3">
-        <v>52</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>10045</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3396,15 +3750,18 @@
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>10053</v>
+        <v>10045</v>
       </c>
       <c r="B55" s="3">
-        <v>53</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>10046</v>
+      </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>104</v>
+      <c r="E55" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3418,15 +3775,18 @@
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>10054</v>
+        <v>10046</v>
       </c>
       <c r="B56" s="3">
-        <v>54</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>10047</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>110</v>
+      <c r="E56" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3440,15 +3800,18 @@
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>10055</v>
+        <v>10047</v>
       </c>
       <c r="B57" s="3">
-        <v>55</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>10048</v>
+      </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
-        <v>119</v>
+      <c r="E57" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3462,15 +3825,18 @@
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>10056</v>
+        <v>10048</v>
       </c>
       <c r="B58" s="3">
-        <v>56</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>10049</v>
+      </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>111</v>
+      <c r="E58" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3484,15 +3850,18 @@
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>10057</v>
+        <v>10049</v>
       </c>
       <c r="B59" s="3">
-        <v>57</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>10050</v>
+      </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>112</v>
+      <c r="E59" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3506,15 +3875,18 @@
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>10058</v>
+        <v>10050</v>
       </c>
       <c r="B60" s="3">
-        <v>58</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>10051</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3528,15 +3900,18 @@
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>10059</v>
+        <v>10051</v>
       </c>
       <c r="B61" s="3">
-        <v>59</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>10052</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3550,15 +3925,18 @@
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>10060</v>
+        <v>10052</v>
       </c>
       <c r="B62" s="3">
-        <v>60</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>10053</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3572,15 +3950,18 @@
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>10061</v>
+        <v>10053</v>
       </c>
       <c r="B63" s="3">
-        <v>61</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>10054</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3594,15 +3975,18 @@
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>10062</v>
+        <v>10054</v>
       </c>
       <c r="B64" s="3">
-        <v>62</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>10055</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3616,15 +4000,18 @@
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>10063</v>
+        <v>10055</v>
       </c>
       <c r="B65" s="3">
-        <v>63</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>10056</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3637,12 +4024,19 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="3">
+        <v>10056</v>
+      </c>
+      <c r="B66" s="3">
+        <v>56</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>10057</v>
+      </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="4" t="s">
-        <v>151</v>
+      <c r="E66" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3655,12 +4049,19 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="3">
+        <v>10057</v>
+      </c>
+      <c r="B67" s="3">
+        <v>57</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="0"/>
+        <v>10058</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3673,12 +4074,19 @@
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="3">
+        <v>10058</v>
+      </c>
+      <c r="B68" s="3">
+        <v>58</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="0"/>
+        <v>10059</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3691,12 +4099,19 @@
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="3">
+        <v>10059</v>
+      </c>
+      <c r="B69" s="3">
+        <v>59</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="0"/>
+        <v>10060</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3709,12 +4124,19 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="3">
+        <v>10060</v>
+      </c>
+      <c r="B70" s="3">
+        <v>60</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="0"/>
+        <v>10061</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3727,12 +4149,19 @@
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="3">
+        <v>10061</v>
+      </c>
+      <c r="B71" s="3">
+        <v>61</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="0"/>
+        <v>10062</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3745,12 +4174,19 @@
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="3">
+        <v>10062</v>
+      </c>
+      <c r="B72" s="3">
+        <v>62</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="0"/>
+        <v>10063</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>125</v>
+      <c r="E72" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3763,12 +4199,19 @@
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="3">
+        <v>10063</v>
+      </c>
+      <c r="B73" s="3">
+        <v>63</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="0"/>
+        <v>10064</v>
+      </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="4" t="s">
-        <v>129</v>
+      <c r="E73" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3781,12 +4224,19 @@
       <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="3">
+        <v>10064</v>
+      </c>
+      <c r="B74" s="3">
+        <v>64</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="0"/>
+        <v>10065</v>
+      </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="4" t="s">
-        <v>130</v>
+      <c r="E74" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3799,12 +4249,19 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="3">
+        <v>10065</v>
+      </c>
+      <c r="B75" s="3">
+        <v>65</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="0"/>
+        <v>10066</v>
+      </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="4" t="s">
-        <v>131</v>
+      <c r="E75" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3817,12 +4274,19 @@
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="3">
+        <v>10066</v>
+      </c>
+      <c r="B76" s="3">
+        <v>66</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" ref="C76:C135" si="1">A77</f>
+        <v>10067</v>
+      </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="4" t="s">
-        <v>132</v>
+      <c r="E76" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3835,12 +4299,19 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="3">
+        <v>10067</v>
+      </c>
+      <c r="B77" s="3">
+        <v>67</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>10068</v>
+      </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="4" t="s">
-        <v>133</v>
+      <c r="E77" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3853,12 +4324,19 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="3">
+        <v>10068</v>
+      </c>
+      <c r="B78" s="3">
+        <v>68</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>10069</v>
+      </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="4" t="s">
-        <v>134</v>
+      <c r="E78" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3871,12 +4349,19 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="3">
+        <v>10069</v>
+      </c>
+      <c r="B79" s="3">
+        <v>69</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="1"/>
+        <v>10070</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3889,12 +4374,19 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B80" s="3">
+        <v>70</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="1"/>
+        <v>10071</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3907,12 +4399,19 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="3">
+        <v>10071</v>
+      </c>
+      <c r="B81" s="3">
+        <v>71</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="1"/>
+        <v>10072</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -3925,12 +4424,19 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="3">
+        <v>10072</v>
+      </c>
+      <c r="B82" s="3">
+        <v>72</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="1"/>
+        <v>10073</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3943,12 +4449,19 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="3">
+        <v>10073</v>
+      </c>
+      <c r="B83" s="3">
+        <v>73</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="1"/>
+        <v>10074</v>
+      </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>126</v>
+      <c r="E83" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3961,12 +4474,19 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="3">
+        <v>10074</v>
+      </c>
+      <c r="B84" s="3">
+        <v>74</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>10075</v>
+      </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>127</v>
+      <c r="E84" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3979,12 +4499,19 @@
       <c r="N84" s="3"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="3">
+        <v>10075</v>
+      </c>
+      <c r="B85" s="3">
+        <v>75</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>10076</v>
+      </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
-        <v>138</v>
+      <c r="E85" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3997,12 +4524,19 @@
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="3">
+        <v>10076</v>
+      </c>
+      <c r="B86" s="3">
+        <v>76</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>10077</v>
+      </c>
       <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>139</v>
+      <c r="E86" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -4015,12 +4549,19 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="3">
+        <v>10077</v>
+      </c>
+      <c r="B87" s="3">
+        <v>77</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>10078</v>
+      </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>140</v>
+      <c r="E87" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4033,12 +4574,19 @@
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="3">
+        <v>10078</v>
+      </c>
+      <c r="B88" s="3">
+        <v>78</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>10079</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4051,12 +4599,19 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="3">
+        <v>10079</v>
+      </c>
+      <c r="B89" s="3">
+        <v>79</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="4" t="s">
-        <v>141</v>
+      <c r="E89" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -4069,12 +4624,19 @@
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="3">
+        <v>10080</v>
+      </c>
+      <c r="B90" s="3">
+        <v>80</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>10081</v>
+      </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="4" t="s">
-        <v>142</v>
+      <c r="E90" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4087,12 +4649,19 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="3">
+        <v>10081</v>
+      </c>
+      <c r="B91" s="3">
+        <v>81</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>10082</v>
+      </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="4" t="s">
-        <v>143</v>
+      <c r="E91" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -4105,12 +4674,19 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="3">
+        <v>10082</v>
+      </c>
+      <c r="B92" s="3">
+        <v>82</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>10083</v>
+      </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="4" t="s">
-        <v>144</v>
+      <c r="E92" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4123,12 +4699,19 @@
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="3">
+        <v>10083</v>
+      </c>
+      <c r="B93" s="3">
+        <v>83</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>10084</v>
+      </c>
       <c r="D93" s="3"/>
-      <c r="E93" s="4" t="s">
-        <v>145</v>
+      <c r="E93" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -4141,12 +4724,19 @@
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="3">
+        <v>10084</v>
+      </c>
+      <c r="B94" s="3">
+        <v>84</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>10085</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4159,12 +4749,19 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="3">
+        <v>10085</v>
+      </c>
+      <c r="B95" s="3">
+        <v>85</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>10086</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4177,12 +4774,19 @@
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="3">
+        <v>10086</v>
+      </c>
+      <c r="B96" s="3">
+        <v>86</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>10087</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4195,12 +4799,19 @@
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="3">
+        <v>10087</v>
+      </c>
+      <c r="B97" s="3">
+        <v>87</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>10088</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4213,12 +4824,19 @@
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="3">
+        <v>10088</v>
+      </c>
+      <c r="B98" s="3">
+        <v>88</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>10089</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -4231,12 +4849,19 @@
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="3">
+        <v>10089</v>
+      </c>
+      <c r="B99" s="3">
+        <v>89</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>10090</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4249,12 +4874,19 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="3">
+        <v>10090</v>
+      </c>
+      <c r="B100" s="3">
+        <v>90</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>10091</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4267,12 +4899,19 @@
       <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="3">
+        <v>10091</v>
+      </c>
+      <c r="B101" s="3">
+        <v>91</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>10092</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4285,12 +4924,19 @@
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="3">
+        <v>10092</v>
+      </c>
+      <c r="B102" s="3">
+        <v>92</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>10093</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4303,12 +4949,19 @@
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="3">
+        <v>10093</v>
+      </c>
+      <c r="B103" s="3">
+        <v>93</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>10094</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4321,12 +4974,19 @@
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="3">
+        <v>10094</v>
+      </c>
+      <c r="B104" s="3">
+        <v>94</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>10095</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4339,12 +4999,19 @@
       <c r="N104" s="3"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="3">
+        <v>10095</v>
+      </c>
+      <c r="B105" s="3">
+        <v>95</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>10096</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4357,12 +5024,19 @@
       <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="3">
+        <v>10096</v>
+      </c>
+      <c r="B106" s="3">
+        <v>96</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>10097</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4375,12 +5049,19 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="3">
+        <v>10097</v>
+      </c>
+      <c r="B107" s="3">
+        <v>97</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>10098</v>
+      </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>164</v>
+      <c r="E107" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4393,12 +5074,19 @@
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="3">
+        <v>10098</v>
+      </c>
+      <c r="B108" s="3">
+        <v>98</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>10099</v>
+      </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>165</v>
+      <c r="E108" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4411,12 +5099,19 @@
       <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="3">
+        <v>10099</v>
+      </c>
+      <c r="B109" s="3">
+        <v>99</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>10100</v>
+      </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>166</v>
+      <c r="E109" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4429,12 +5124,19 @@
       <c r="N109" s="3"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="3">
+        <v>10100</v>
+      </c>
+      <c r="B110" s="3">
+        <v>100</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="1"/>
+        <v>10101</v>
+      </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
-        <v>167</v>
+      <c r="E110" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4447,12 +5149,19 @@
       <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="3">
+        <v>10101</v>
+      </c>
+      <c r="B111" s="3">
+        <v>101</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="1"/>
+        <v>10102</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4465,12 +5174,19 @@
       <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="3">
+        <v>10102</v>
+      </c>
+      <c r="B112" s="3">
+        <v>102</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="1"/>
+        <v>10103</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -4483,12 +5199,19 @@
       <c r="N112" s="3"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="3">
+        <v>10103</v>
+      </c>
+      <c r="B113" s="3">
+        <v>103</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="1"/>
+        <v>10104</v>
+      </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="4" t="s">
-        <v>176</v>
+      <c r="E113" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4501,12 +5224,19 @@
       <c r="N113" s="3"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="3">
+        <v>10104</v>
+      </c>
+      <c r="B114" s="3">
+        <v>104</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="1"/>
+        <v>10105</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -4519,12 +5249,19 @@
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="3">
+        <v>10105</v>
+      </c>
+      <c r="B115" s="3">
+        <v>105</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="1"/>
+        <v>10106</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -4537,12 +5274,19 @@
       <c r="N115" s="3"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="3">
+        <v>10106</v>
+      </c>
+      <c r="B116" s="3">
+        <v>106</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="1"/>
+        <v>10107</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -4555,12 +5299,19 @@
       <c r="N116" s="3"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="3">
+        <v>10107</v>
+      </c>
+      <c r="B117" s="3">
+        <v>107</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="1"/>
+        <v>10108</v>
+      </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
-        <v>171</v>
+      <c r="E117" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -4573,12 +5324,19 @@
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="3">
+        <v>10108</v>
+      </c>
+      <c r="B118" s="3">
+        <v>108</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="1"/>
+        <v>10109</v>
+      </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="3" t="s">
-        <v>172</v>
+      <c r="E118" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4591,12 +5349,19 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="3">
+        <v>10109</v>
+      </c>
+      <c r="B119" s="3">
+        <v>109</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="1"/>
+        <v>10110</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4609,12 +5374,19 @@
       <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="3">
+        <v>10110</v>
+      </c>
+      <c r="B120" s="3">
+        <v>110</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="1"/>
+        <v>10111</v>
+      </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="4" t="s">
-        <v>152</v>
+      <c r="E120" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4627,12 +5399,19 @@
       <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="3">
+        <v>10111</v>
+      </c>
+      <c r="B121" s="3">
+        <v>111</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="1"/>
+        <v>10112</v>
+      </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="4" t="s">
-        <v>153</v>
+      <c r="E121" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4645,12 +5424,19 @@
       <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="3">
+        <v>10112</v>
+      </c>
+      <c r="B122" s="3">
+        <v>112</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="1"/>
+        <v>10113</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4663,10 +5449,20 @@
       <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="3">
+        <v>10113</v>
+      </c>
+      <c r="B123" s="3">
+        <v>113</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="1"/>
+        <v>10114</v>
+      </c>
       <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -4678,11 +5474,20 @@
       <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="3">
+        <v>10114</v>
+      </c>
+      <c r="B124" s="3">
+        <v>114</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="1"/>
+        <v>10115</v>
+      </c>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -4694,11 +5499,20 @@
       <c r="N124" s="3"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="3">
+        <v>10115</v>
+      </c>
+      <c r="B125" s="3">
+        <v>115</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="1"/>
+        <v>10116</v>
+      </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="E125" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -4710,11 +5524,20 @@
       <c r="N125" s="3"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="3">
+        <v>10116</v>
+      </c>
+      <c r="B126" s="3">
+        <v>116</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="1"/>
+        <v>10117</v>
+      </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="E126" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -4726,11 +5549,20 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="3">
+        <v>10117</v>
+      </c>
+      <c r="B127" s="3">
+        <v>117</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="1"/>
+        <v>10118</v>
+      </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -4742,11 +5574,20 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="3">
+        <v>10118</v>
+      </c>
+      <c r="B128" s="3">
+        <v>118</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="1"/>
+        <v>10119</v>
+      </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -4758,11 +5599,20 @@
       <c r="N128" s="3"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="3">
+        <v>10119</v>
+      </c>
+      <c r="B129" s="3">
+        <v>119</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="1"/>
+        <v>10120</v>
+      </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="E129" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -4774,11 +5624,20 @@
       <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="3">
+        <v>10120</v>
+      </c>
+      <c r="B130" s="3">
+        <v>120</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="1"/>
+        <v>10121</v>
+      </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -4790,11 +5649,20 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="3">
+        <v>10121</v>
+      </c>
+      <c r="B131" s="3">
+        <v>121</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" si="1"/>
+        <v>10122</v>
+      </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -4806,11 +5674,20 @@
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="3">
+        <v>10122</v>
+      </c>
+      <c r="B132" s="3">
+        <v>122</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="1"/>
+        <v>10123</v>
+      </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="E132" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -4822,11 +5699,20 @@
       <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="3">
+        <v>10123</v>
+      </c>
+      <c r="B133" s="3">
+        <v>123</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="1"/>
+        <v>10124</v>
+      </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="E133" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -4838,11 +5724,20 @@
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="3">
+        <v>10124</v>
+      </c>
+      <c r="B134" s="3">
+        <v>124</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="1"/>
+        <v>10125</v>
+      </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="E134" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -4854,11 +5749,20 @@
       <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="3">
+        <v>10125</v>
+      </c>
+      <c r="B135" s="3">
+        <v>125</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -5029,6 +5933,102 @@
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
     </row>
+    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2118,6 +2110,14 @@
   </si>
   <si>
     <t>守护灵抽卡券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2651,7 +2651,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2693,18 +2693,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2713,14 +2713,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2785,19 +2785,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
@@ -2809,78 +2809,78 @@
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.2">
@@ -2888,49 +2888,49 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -2948,17 +2948,17 @@
         <v>新手任务-1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>D4&amp;":"&amp;E4</f>
         <v>新手任务-1:进行一场战斗</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3">
         <v>1000</v>
@@ -2996,17 +2996,17 @@
         <v>新手任务-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" ref="F5:F68" si="1">D5&amp;":"&amp;E5</f>
         <v>新手任务-2:上阵夏玲</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -3021,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3">
         <v>1000</v>
@@ -3044,17 +3044,17 @@
         <v>新手任务-3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-3:上阵曹玄亮</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="3">
         <v>1000</v>
@@ -3092,17 +3092,17 @@
         <v>新手任务-4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-4:击败曹焱兵</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3">
         <v>1000</v>
@@ -3140,17 +3140,17 @@
         <v>新手任务-5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-5:通灵秘术</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -3163,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3">
         <v>1000</v>
@@ -3186,17 +3186,17 @@
         <v>新手任务-6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-6:通过关卡1-3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3">
         <v>1000</v>
@@ -3234,17 +3234,17 @@
         <v>新手任务-7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-7:升级守护灵</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3259,13 +3259,13 @@
         <v>5</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="3">
         <v>1000</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P10" s="3">
         <v>1</v>
@@ -3286,17 +3286,17 @@
         <v>新手任务-8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-8:再次通灵</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -3309,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="3">
         <v>1000</v>
@@ -3332,17 +3332,17 @@
         <v>新手任务-9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-9:兑换一次技能</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
@@ -3378,17 +3378,17 @@
         <v>新手任务-10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-10:关卡1-4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" s="3">
         <v>1000</v>
@@ -3426,17 +3426,17 @@
         <v>新手任务-11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-11:把于禁突破</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" s="3">
         <v>1000</v>
@@ -3474,17 +3474,17 @@
         <v>新手任务-12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-12:关卡1-5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="3">
         <v>1000</v>
@@ -3522,17 +3522,17 @@
         <v>新手任务-13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-13:再次通灵</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -3545,7 +3545,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" s="3">
         <v>1000</v>
@@ -3568,17 +3568,17 @@
         <v>新手任务-14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-14:上阵李轩辕</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
@@ -3616,17 +3616,17 @@
         <v>新手任务-15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-15:关卡1-6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" s="3">
         <v>1000</v>
@@ -3664,17 +3664,17 @@
         <v>新手任务-16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-16:黑绳</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="3">
         <v>1000</v>
@@ -3712,17 +3712,17 @@
         <v>新手任务-17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-17:关卡1-7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
@@ -3760,17 +3760,17 @@
         <v>新手任务-18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-18:挂机1-1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N21" s="3">
         <v>1000</v>
@@ -3808,17 +3808,17 @@
         <v>新手任务-19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-19:升级</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
@@ -3856,17 +3856,17 @@
         <v>新手任务-20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-20:挂机1-2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N23" s="3">
         <v>1000</v>
@@ -3904,17 +3904,17 @@
         <v>新手任务-21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-21:升级卡牌</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N24" s="3">
         <v>1000</v>
@@ -3952,17 +3952,17 @@
         <v>新手任务-22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-22:突破卡牌</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N25" s="3">
         <v>1000</v>
@@ -4000,17 +4000,17 @@
         <v>新手任务-23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-23:挂机1-3</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N26" s="3">
         <v>1000</v>
@@ -4048,17 +4048,17 @@
         <v>新手任务-24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-24:突破卡牌</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N27" s="3">
         <v>1000</v>
@@ -4096,17 +4096,17 @@
         <v>新手任务-25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-25:挂机1-4</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N28" s="3">
         <v>1000</v>
@@ -4144,17 +4144,17 @@
         <v>新手任务-26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-26:牧守令</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
@@ -4167,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N29" s="3">
         <v>1000</v>
@@ -4190,17 +4190,17 @@
         <v>新手任务-27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-27:养精蓄锐</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N30" s="3">
         <v>1000</v>
@@ -4236,17 +4236,17 @@
         <v>新手任务-28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-28:关卡2-1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N31" s="3">
         <v>1000</v>
@@ -4284,17 +4284,17 @@
         <v>新手任务-29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-29:突破卡牌</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N32" s="3">
         <v>1000</v>
@@ -4332,17 +4332,17 @@
         <v>新手任务-30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-30:关卡2-2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N33" s="3">
         <v>1000</v>
@@ -4380,17 +4380,17 @@
         <v>新手任务-31</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-31:卡牌升级</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N34" s="3">
         <v>1000</v>
@@ -4428,17 +4428,17 @@
         <v>新手任务-32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-32:关卡2-3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N35" s="3">
         <v>1000</v>
@@ -4476,17 +4476,17 @@
         <v>新手任务-33</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-33:关卡2-4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N36" s="3">
         <v>1000</v>
@@ -4524,17 +4524,17 @@
         <v>新手任务-34</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-34:卡牌升级</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>5</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N37" s="3">
         <v>1000</v>
@@ -4572,17 +4572,17 @@
         <v>新手任务-35</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-35:关卡2-5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N38" s="3">
         <v>1000</v>
@@ -4620,17 +4620,17 @@
         <v>新手任务-36</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-36:关卡2-6</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N39" s="3">
         <v>1000</v>
@@ -4668,17 +4668,17 @@
         <v>新手任务-37</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-37:升级卡牌</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N40" s="3">
         <v>1000</v>
@@ -4714,17 +4714,17 @@
         <v>新手任务-38</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-38:关卡2-7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
@@ -4739,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N41" s="3">
         <v>1000</v>
@@ -4762,17 +4762,17 @@
         <v>新手任务-39</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-39:过困1-1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N42" s="3">
         <v>1000</v>
@@ -4810,17 +4810,17 @@
         <v>新手任务-40</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-40:过困1-2</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>5</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N43" s="3">
         <v>1000</v>
@@ -4858,17 +4858,17 @@
         <v>新手任务-41</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-41:过困1-3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N44" s="3">
         <v>1000</v>
@@ -4906,17 +4906,17 @@
         <v>新手任务-42</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-42:领取宝箱</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N45" s="3">
         <v>1000</v>
@@ -4954,17 +4954,17 @@
         <v>新手任务-43</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-43:通关困难第一章</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N46" s="3">
         <v>1000</v>
@@ -5002,17 +5002,17 @@
         <v>新手任务-44</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-44:领取宝箱</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N47" s="3">
         <v>1000</v>
@@ -5050,17 +5050,17 @@
         <v>新手任务-45</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-45:突破卡牌</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
@@ -5096,17 +5096,17 @@
         <v>新手任务-46</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-46:过关2-8</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N49" s="3">
         <v>1000</v>
@@ -5144,17 +5144,17 @@
         <v>新手任务-47</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-47:过关2-9</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
@@ -5169,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N50" s="3">
         <v>1000</v>
@@ -5192,17 +5192,17 @@
         <v>新手任务-48</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-48:挂机2-1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -5217,7 +5217,7 @@
         <v>5</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N51" s="3">
         <v>1000</v>
@@ -5240,17 +5240,17 @@
         <v>新手任务-49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-49:挂机2-2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N52" s="3">
         <v>1000</v>
@@ -5288,17 +5288,17 @@
         <v>新手任务-50</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-50:挂机2-3</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N53" s="3">
         <v>1000</v>
@@ -5336,17 +5336,17 @@
         <v>新手任务-51</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-51:挂机2-4</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -5361,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N54" s="3">
         <v>1000</v>
@@ -5384,17 +5384,17 @@
         <v>新手任务-52</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-52:挂机2-5</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -5409,7 +5409,7 @@
         <v>5</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N55" s="3">
         <v>1000</v>
@@ -5432,17 +5432,17 @@
         <v>新手任务-53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-53:挂机2-6</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N56" s="3">
         <v>1000</v>
@@ -5480,17 +5480,17 @@
         <v>新手任务-54</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-54:挂机2-7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -5505,7 +5505,7 @@
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
@@ -5528,17 +5528,17 @@
         <v>新手任务-55</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-55:芦花古楼</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -5576,17 +5576,17 @@
         <v>新手任务-56</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-56:芦花古楼</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -5601,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
@@ -5624,17 +5624,17 @@
         <v>新手任务-57</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-57:芦花古楼</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
@@ -5649,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
@@ -5672,17 +5672,17 @@
         <v>新手任务-58</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-58:芦花古楼</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
@@ -5697,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N61" s="3">
         <v>1000</v>
@@ -5720,17 +5720,17 @@
         <v>新手任务-59</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-59:激活神器</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
@@ -5745,7 +5745,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
@@ -5768,17 +5768,17 @@
         <v>新手任务-60</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-60:挂机2-8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N63" s="3">
         <v>1000</v>
@@ -5816,17 +5816,17 @@
         <v>新手任务-61</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-61:挂机2-9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N64" s="3">
         <v>1000</v>
@@ -5864,17 +5864,17 @@
         <v>新手任务-62</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-62:卡牌升级</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N65" s="3">
         <v>1000</v>
@@ -5912,17 +5912,17 @@
         <v>新手任务-63</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-63:过关3-1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -5937,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
@@ -5960,17 +5960,17 @@
         <v>新手任务-64</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-64:过关3-2</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5985,7 +5985,7 @@
         <v>5</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N67" s="3">
         <v>1000</v>
@@ -6008,17 +6008,17 @@
         <v>新手任务-65</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-65:过关3-3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N68" s="3">
         <v>1000</v>
@@ -6056,17 +6056,17 @@
         <v>新手任务-66</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F69" s="3" t="str">
         <f t="shared" ref="F69:F131" si="3">D69&amp;":"&amp;E69</f>
         <v>新手任务-66:过关3-4</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N69" s="3">
         <v>1000</v>
@@ -6104,17 +6104,17 @@
         <v>新手任务-67</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-67:过关3-5</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N70" s="3">
         <v>1000</v>
@@ -6152,17 +6152,17 @@
         <v>新手任务-68</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-68:过关3-6</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -6177,7 +6177,7 @@
         <v>5</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N71" s="3">
         <v>1000</v>
@@ -6200,17 +6200,17 @@
         <v>新手任务-69</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-69:过关3-7</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N72" s="3">
         <v>1000</v>
@@ -6248,17 +6248,17 @@
         <v>新手任务-70</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-70:过关3-8</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
@@ -6273,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N73" s="3">
         <v>1000</v>
@@ -6296,17 +6296,17 @@
         <v>新手任务-71</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-71:过关3-9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N74" s="3">
         <v>1000</v>
@@ -6344,17 +6344,17 @@
         <v>新手任务-72</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-72:初识竞技场</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
@@ -6367,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N75" s="3">
         <v>1000</v>
@@ -6390,17 +6390,17 @@
         <v>新手任务-73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-73:挂机3-1</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
@@ -6415,7 +6415,7 @@
         <v>5</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N76" s="3">
         <v>1000</v>
@@ -6438,17 +6438,17 @@
         <v>新手任务-74</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-74:挂机3-2</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -6463,7 +6463,7 @@
         <v>5</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N77" s="3">
         <v>1000</v>
@@ -6486,17 +6486,17 @@
         <v>新手任务-75</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-75:挂机3-3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>5</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N78" s="3">
         <v>1000</v>
@@ -6534,17 +6534,17 @@
         <v>新手任务-76</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-76:挂机3-4</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
@@ -6559,7 +6559,7 @@
         <v>5</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N79" s="3">
         <v>1000</v>
@@ -6582,17 +6582,17 @@
         <v>新手任务-77</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-77:挂机3-5</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
@@ -6607,7 +6607,7 @@
         <v>5</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N80" s="3">
         <v>1000</v>
@@ -6630,17 +6630,17 @@
         <v>新手任务-78</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-78:挂机3-6</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>5</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N81" s="3">
         <v>1000</v>
@@ -6678,17 +6678,17 @@
         <v>新手任务-79</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-79:困难关卡</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N82" s="3">
         <v>1000</v>
@@ -6726,17 +6726,17 @@
         <v>新手任务-80</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-80:突的张3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -6748,7 +6748,7 @@
         <v>5</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N83" s="3">
         <v>1000</v>
@@ -6771,17 +6771,17 @@
         <v>新手任务-81</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-81:挂机3-7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -6796,7 +6796,7 @@
         <v>5</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N84" s="3">
         <v>1000</v>
@@ -6819,17 +6819,17 @@
         <v>新手任务-82</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-82:挂机3-8</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>5</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N85" s="3">
         <v>1000</v>
@@ -6867,17 +6867,17 @@
         <v>新手任务-83</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-83:古楼-风-5</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
@@ -6892,7 +6892,7 @@
         <v>5</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N86" s="3">
         <v>1000</v>
@@ -6915,17 +6915,17 @@
         <v>新手任务-84</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-84:古楼-风-6</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
@@ -6940,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N87" s="3">
         <v>1000</v>
@@ -6963,17 +6963,17 @@
         <v>新手任务-85</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-85:古楼-风-7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N88" s="3">
         <v>1000</v>
@@ -7011,17 +7011,17 @@
         <v>新手任务-86</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-86:神器升级</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>5</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N89" s="3">
         <v>1000</v>
@@ -7059,17 +7059,17 @@
         <v>新手任务-87</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-87:挂机3-9</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>5</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N90" s="3">
         <v>1000</v>
@@ -7107,17 +7107,17 @@
         <v>新手任务-88</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-88:养精蓄锐</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I91" s="3">
         <v>1</v>
@@ -7130,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N91" s="3">
         <v>1000</v>
@@ -7153,17 +7153,17 @@
         <v>新手任务-89</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-89:过关4-1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -7178,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N92" s="3">
         <v>1000</v>
@@ -7201,17 +7201,17 @@
         <v>新手任务-90</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-90:过关4-2</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I93" s="3">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>5</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N93" s="3">
         <v>1000</v>
@@ -7249,17 +7249,17 @@
         <v>新手任务-91</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-91:过关4-3</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
@@ -7274,7 +7274,7 @@
         <v>5</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N94" s="3">
         <v>1000</v>
@@ -7297,17 +7297,17 @@
         <v>新手任务-92</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-92:过关4-4</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I95" s="3">
         <v>1</v>
@@ -7322,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N95" s="3">
         <v>1000</v>
@@ -7345,17 +7345,17 @@
         <v>新手任务-93</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-93:过关4-5</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N96" s="3">
         <v>1000</v>
@@ -7393,17 +7393,17 @@
         <v>新手任务-94</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-94:过关4-6</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
@@ -7418,7 +7418,7 @@
         <v>5</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N97" s="3">
         <v>1000</v>
@@ -7441,17 +7441,17 @@
         <v>新手任务-95</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-95:过关4-7</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N98" s="3">
         <v>1000</v>
@@ -7489,17 +7489,17 @@
         <v>新手任务-96</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-96:过关4-8</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N99" s="3">
         <v>1000</v>
@@ -7537,17 +7537,17 @@
         <v>新手任务-97</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-97:过关4-9</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I100" s="3">
         <v>1</v>
@@ -7562,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N100" s="3">
         <v>1000</v>
@@ -7585,17 +7585,17 @@
         <v>新手任务-98</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-98:挂机4-1</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I101" s="3">
         <v>1</v>
@@ -7610,7 +7610,7 @@
         <v>5</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N101" s="3">
         <v>1000</v>
@@ -7633,17 +7633,17 @@
         <v>新手任务-99</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-99:挂机4-2</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I102" s="3">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N102" s="3">
         <v>1000</v>
@@ -7681,17 +7681,17 @@
         <v>新手任务-100</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-100:挂机4-3</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I103" s="3">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>5</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N103" s="3">
         <v>1000</v>
@@ -7729,17 +7729,17 @@
         <v>新手任务-101</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-101:挂机4-4</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I104" s="3">
         <v>1</v>
@@ -7754,7 +7754,7 @@
         <v>5</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N104" s="3">
         <v>1000</v>
@@ -7777,17 +7777,17 @@
         <v>新手任务-102</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-102:挂机4-5</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>5</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N105" s="3">
         <v>1000</v>
@@ -7825,17 +7825,17 @@
         <v>新手任务-103</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-103:挂机4-6</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I106" s="3">
         <v>1</v>
@@ -7850,7 +7850,7 @@
         <v>5</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N106" s="3">
         <v>1000</v>
@@ -7873,17 +7873,17 @@
         <v>新手任务-104</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-104:挂机4-7</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I107" s="3">
         <v>1</v>
@@ -7898,7 +7898,7 @@
         <v>5</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N107" s="3">
         <v>1000</v>
@@ -7921,17 +7921,17 @@
         <v>新手任务-105</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-105:挂机4-8</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I108" s="3">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>5</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N108" s="3">
         <v>1000</v>
@@ -7969,17 +7969,17 @@
         <v>新手任务-106</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-106:困难关卡</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I109" s="3">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N109" s="3">
         <v>1000</v>
@@ -8017,17 +8017,17 @@
         <v>新手任务-107</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-107:困难关卡</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I110" s="3">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N110" s="3">
         <v>1000</v>
@@ -8065,17 +8065,17 @@
         <v>新手任务-108</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F111" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-108:困难关卡</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I111" s="3">
         <v>1</v>
@@ -8090,7 +8090,7 @@
         <v>5</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N111" s="3">
         <v>1000</v>
@@ -8113,17 +8113,17 @@
         <v>新手任务-109</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F112" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-109:困难关卡</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I112" s="3">
         <v>1</v>
@@ -8138,7 +8138,7 @@
         <v>5</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N112" s="3">
         <v>1000</v>
@@ -8161,17 +8161,17 @@
         <v>新手任务-110</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-110:养精蓄锐</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I113" s="3">
         <v>1</v>
@@ -8186,7 +8186,7 @@
         <v>5</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N113" s="3">
         <v>1000</v>
@@ -8209,17 +8209,17 @@
         <v>新手任务-111</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F114" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-111:世界BOSS</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I114" s="3">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N114" s="3">
         <v>1000</v>
@@ -8257,17 +8257,17 @@
         <v>新手任务-112</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F115" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-112:专属强化</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I115" s="3">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>5</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N115" s="3">
         <v>1000</v>
@@ -8303,17 +8303,17 @@
         <v>新手任务-113</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-113:困难3-5</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I116" s="3">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N116" s="3">
         <v>1000</v>
@@ -8351,17 +8351,17 @@
         <v>新手任务-114</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F117" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-114:困难3-6</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I117" s="3">
         <v>1</v>
@@ -8376,7 +8376,7 @@
         <v>5</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N117" s="3">
         <v>1000</v>
@@ -8399,17 +8399,17 @@
         <v>新手任务-115</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-115:困难3-7</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I118" s="3">
         <v>1</v>
@@ -8424,7 +8424,7 @@
         <v>5</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N118" s="3">
         <v>1000</v>
@@ -8447,17 +8447,17 @@
         <v>新手任务-116</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-116:困难3-8</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I119" s="3">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N119" s="3">
         <v>1000</v>
@@ -8495,17 +8495,17 @@
         <v>新手任务-117</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-117:困难3-9</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I120" s="3">
         <v>1</v>
@@ -8520,7 +8520,7 @@
         <v>5</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N120" s="3">
         <v>1000</v>
@@ -8543,17 +8543,17 @@
         <v>新手任务-118</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-118:卡牌突破</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I121" s="3">
         <v>1</v>
@@ -8566,7 +8566,7 @@
         <v>5</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N121" s="3">
         <v>1000</v>
@@ -8589,17 +8589,17 @@
         <v>新手任务-119</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-119:古楼古楼</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I122" s="3">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>5</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N122" s="3">
         <v>1000</v>
@@ -8637,17 +8637,17 @@
         <v>新手任务-120</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-120:古楼古楼</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I123" s="3">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N123" s="3">
         <v>1000</v>
@@ -8685,17 +8685,17 @@
         <v>新手任务-121</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-121:古楼古楼</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I124" s="3">
         <v>1</v>
@@ -8710,7 +8710,7 @@
         <v>5</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N124" s="3">
         <v>1000</v>
@@ -8733,17 +8733,17 @@
         <v>新手任务-122</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-122:神器升级</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I125" s="3">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>5</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N125" s="3">
         <v>1000</v>
@@ -8781,17 +8781,17 @@
         <v>新手任务-123</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-123:挂机4-9</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I126" s="3">
         <v>1</v>
@@ -8806,7 +8806,7 @@
         <v>5</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N126" s="3">
         <v>1001</v>
@@ -8829,17 +8829,17 @@
         <v>新手任务-124</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F127" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-124:古楼古楼</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I127" s="3">
         <v>1</v>
@@ -8854,7 +8854,7 @@
         <v>5</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N127" s="3">
         <v>1001</v>
@@ -8877,17 +8877,17 @@
         <v>新手任务-125</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F128" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-125:古楼古楼</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I128" s="3">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>5</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N128" s="3">
         <v>1001</v>
@@ -8925,17 +8925,17 @@
         <v>新手任务-126</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-126:古楼古楼</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I129" s="3">
         <v>1</v>
@@ -8950,7 +8950,7 @@
         <v>5</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N129" s="3">
         <v>1001</v>
@@ -8973,17 +8973,17 @@
         <v>新手任务-127</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-127:古楼古楼</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I130" s="3">
         <v>1</v>
@@ -8998,7 +8998,7 @@
         <v>5</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N130" s="3">
         <v>1001</v>
@@ -9022,17 +9022,17 @@
         <v>新手任务-128</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" si="3"/>
         <v>新手任务-128:养精蓄锐</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I131" s="3">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N131" s="3">
         <v>1001</v>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="366">
   <si>
     <t>sheet名</t>
   </si>
@@ -1992,108 +1992,271 @@
     <t>芦花古楼风-4</t>
   </si>
   <si>
-    <t>攻打1-1</t>
-  </si>
-  <si>
     <t>攻打1-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得唐流雨</t>
+  </si>
+  <si>
+    <t>获得唐流雨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得唐流雨，并让唐流雨 上阵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help3</t>
+  </si>
+  <si>
+    <t>怪是唐流雨，让玩家熟悉战斗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵秘术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换一次技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪是食火蜥，血比较厚，需要召唤唐流雨才能打动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方阵容是，黑尔坎普(塞伯罗斯)，吉拉(食火蜥)，一把正常的战斗。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第一个地狱道任务，让寄灵人升级（4级）任务中要求拥有一个3级守护灵，进行3次守护灵抽奖。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方寄灵人整体突破了，如果不做地狱道任务，则无法通过这一关。对方阵容是吉拉(食火蜥)，南御夫(噬日)，黑尔坎普(塞伯罗斯)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个3级守护灵</t>
+  </si>
+  <si>
+    <t>拥有3个3级守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破地狱道</t>
+  </si>
+  <si>
+    <t>突破地狱道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难关卡</t>
+  </si>
+  <si>
+    <t>古楼古楼</t>
+  </si>
+  <si>
+    <t>合成唐流雨，并让他上阵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次通灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再进行一次通灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换一次技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌-id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道</t>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得塞伯罗斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次获得塞伯罗斯，分解成碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用塞伯罗斯碎片兑换技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方阵容是，南御夫(噬日)，北落师门(石灵明)，一把正常的战斗。战后奖励常服曹焱兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方阵容是，阎巧巧（烈风螳螂），南御夫（噬日），黑尔坎普（塞伯罗斯）；噬日非常强，是突破过的。但南御夫很弱，可以用夏玲的BUFF，一轮干掉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方的寄灵人很厉害，快去突破地狱道，进阶到黑绳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个3级守护灵，前方的敌人更强大了，快去培养守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵秘术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵秘术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻打1-2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>获得唐流雨</t>
-  </si>
-  <si>
-    <t>获得唐流雨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得唐流雨，并让唐流雨 上阵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻打1-1</t>
+    <t>把李轩辕升级到5级。我们剩下的经验不多的，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破唐流雨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻打1-3</t>
-  </si>
-  <si>
-    <t>攻打1-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help3</t>
-  </si>
-  <si>
-    <t>怪是唐流雨，让玩家熟悉战斗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换一次技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻打1-4</t>
-  </si>
-  <si>
-    <t>攻打1-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪是食火蜥，血比较厚，需要召唤唐流雨才能打动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方阵容是，黑尔坎普(塞伯罗斯)，吉拉(食火蜥)，一把正常的战斗。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻打1-5</t>
-  </si>
-  <si>
-    <t>攻打1-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻打1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻打1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻打1-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻打1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻打1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-id</t>
+  </si>
+  <si>
+    <t>攻打1-9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打1-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻打1-6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>攻打1-7</t>
-  </si>
-  <si>
-    <t>攻打1-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻打1-8</t>
-  </si>
-  <si>
-    <t>攻打1-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻打1-9</t>
-  </si>
-  <si>
-    <t>攻打1-9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成第一个地狱道任务，让寄灵人升级（4级）任务中要求拥有一个3级守护灵，进行3次守护灵抽奖。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方寄灵人整体突破了，如果不做地狱道任务，则无法通过这一关。对方阵容是吉拉(食火蜥)，南御夫(噬日)，黑尔坎普(塞伯罗斯)</t>
+    <t>通关普通关1-9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2101,216 +2264,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>拥有3个3级守护灵</t>
-  </si>
-  <si>
-    <t>拥有3个3级守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有1个5级守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕1突</t>
-  </si>
-  <si>
-    <t>李轩辕1突</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破地狱道</t>
-  </si>
-  <si>
-    <t>突破地狱道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难关卡</t>
-  </si>
-  <si>
-    <t>古楼古楼</t>
-  </si>
-  <si>
-    <t>合成唐流雨，并让他上阵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再进行一次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换一次技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级李轩辕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定卡牌-id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能获取-buyTimes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道</t>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵突破-id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-1。注意寄灵人技能的释放顺序。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-2。试试新获得的唐流雨吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得塞伯罗斯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次获得塞伯罗斯，分解成碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用塞伯罗斯碎片兑换技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-4，前方是著名的武师北落师门，注意集火，避免他招出强力的守护灵石灵明。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方阵容是，南御夫(噬日)，北落师门(石灵明)，一把正常的战斗。战后奖励常服曹焱兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方阵容是，阎巧巧（烈风螳螂），南御夫（噬日），黑尔坎普（塞伯罗斯）；噬日非常强，是突破过的。但南御夫很弱，可以用夏玲的BUFF，一轮干掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-5，阎巧巧的烈风螳螂很厉害，使用曹焱兵的困龙火烛，不要让她招出守护灵。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方的寄灵人很厉害，快去突破地狱道，进阶到黑绳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-6，大家拥有了黑绳的实力，快去战斗吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3个3级守护灵，前方的敌人更强大了，快去培养守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-7，挑战自己的心魔，才能战胜更强的敌人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>把李轩辕升级到5级。我们剩下的经验不多的，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再进行一次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太好了，又获得了一张通灵卷轴，单抽出奇迹，快去试试吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>给曹焱兵配一个守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>曹焱兵加入了我们，但他还没有守护灵，十分不开心。快去召唤一个吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-8，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>把李轩辕突破到+2。守护灵升到一定等级，需要突破才能继续升级。对面的石灵明非常强，建议用李轩辕应对</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关普通关1-9。这是这一章最后一关了，怎么着也会有些难度。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得曹焱兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成曹焱兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹焱兵加入了我们</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成曹焱兵，让他加入我们</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>快把新获得的守护灵配给夏铃，通关普通关1-3</t>
+    <t>通关普通关1-8。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-7，大家拥有了黑绳的实力，快去战斗吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-6，阎巧巧的烈风螳螂很厉害，使用曹焱兵的困龙火烛，不要让她招出守护灵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-5，前方是著名的武师北落师门，注意集火，避免他招出强力的守护灵石灵明。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快把新获得的守护灵配给夏铃，通关普通关1-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-3。试试新获得的唐流雨吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-2。注意寄灵人技能的释放顺序。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2954,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2994,7 +2972,7 @@
         <v>256</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
@@ -3041,13 +3019,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -3149,16 +3127,16 @@
         <v>新手任务-1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>264</v>
@@ -3170,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>10101</v>
+        <v>10102</v>
       </c>
       <c r="M4" s="3">
         <v>5</v>
@@ -3199,19 +3177,19 @@
         <v>新手任务-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -3249,16 +3227,16 @@
         <v>新手任务-3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>264</v>
@@ -3270,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>10102</v>
+        <v>10103</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -3299,19 +3277,19 @@
         <v>新手任务-4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -3347,16 +3325,16 @@
         <v>新手任务-5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>264</v>
@@ -3368,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>10103</v>
+        <v>10104</v>
       </c>
       <c r="M8" s="3">
         <v>5</v>
@@ -3393,20 +3371,20 @@
         <v>10007</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>"新手任务-"&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>新手任务-6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>148</v>
@@ -3441,23 +3419,23 @@
         <v>10008</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>"新手任务-"&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>新手任务-7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>277</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -3493,16 +3471,16 @@
         <v>新手任务-8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>314</v>
+        <v>336</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>264</v>
@@ -3514,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="M11" s="3">
         <v>5</v>
@@ -3528,7 +3506,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10009</v>
       </c>
@@ -3543,19 +3521,19 @@
         <v>新手任务-9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
@@ -3563,22 +3541,22 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
-        <v>1101001</v>
+      <c r="L12" s="4">
+        <v>10106</v>
       </c>
       <c r="M12" s="3">
         <v>5</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10010</v>
       </c>
@@ -3593,32 +3571,34 @@
         <v>新手任务-10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
       <c r="M13" s="3">
         <v>5</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="O13" s="3">
         <v>1000</v>
@@ -3626,7 +3606,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10011</v>
       </c>
@@ -3641,16 +3621,16 @@
         <v>新手任务-11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>264</v>
@@ -3659,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
-        <v>10105</v>
+        <v>10107</v>
       </c>
       <c r="M14" s="3">
         <v>5</v>
@@ -3676,7 +3656,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10012</v>
       </c>
@@ -3691,28 +3671,28 @@
         <v>新手任务-12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>336</v>
+        <v>358</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>5</v>
@@ -3726,7 +3706,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10013</v>
       </c>
@@ -3741,16 +3721,14 @@
         <v>新手任务-13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>320</v>
+        <v>354</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>264</v>
@@ -3759,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
-        <v>10106</v>
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10108</v>
       </c>
       <c r="M16" s="3">
         <v>5</v>
@@ -3776,7 +3754,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10014</v>
       </c>
@@ -3791,26 +3769,26 @@
         <v>新手任务-14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>331</v>
+      <c r="G17" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>1102004</v>
       </c>
       <c r="M17" s="3">
         <v>5</v>
@@ -3824,7 +3802,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10015</v>
       </c>
@@ -3839,16 +3817,14 @@
         <v>新手任务-15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>330</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>264</v>
@@ -3857,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>10107</v>
+        <v>10109</v>
       </c>
       <c r="M18" s="3">
         <v>5</v>
@@ -3874,7 +3850,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10016</v>
       </c>
@@ -3889,32 +3865,40 @@
         <v>新手任务-16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>370</v>
+      <c r="G19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>4</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>30101</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1000</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>10017</v>
       </c>
@@ -3929,17 +3913,17 @@
         <v>新手任务-17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>344</v>
+      <c r="G20" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>367</v>
+        <v>136</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
@@ -3962,7 +3946,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>10018</v>
       </c>
@@ -3977,17 +3961,17 @@
         <v>新手任务-18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>325</v>
+        <v>164</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -3996,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>10108</v>
+        <v>30102</v>
       </c>
       <c r="M21" s="3">
         <v>5</v>
@@ -4010,7 +3994,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>10019</v>
       </c>
@@ -4025,26 +4009,26 @@
         <v>新手任务-19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
-        <v>334</v>
+        <v>166</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22" s="3">
-        <v>1102005</v>
+        <v>1102004</v>
       </c>
       <c r="M22" s="3">
         <v>5</v>
@@ -4058,7 +4042,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>10020</v>
       </c>
@@ -4073,26 +4057,26 @@
         <v>新手任务-20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>379</v>
+        <v>139</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="3">
-        <v>10109</v>
+        <v>1102004</v>
       </c>
       <c r="M23" s="3">
         <v>5</v>
@@ -4121,14 +4105,14 @@
         <v>新手任务-21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>259</v>
@@ -4140,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>30101</v>
+        <v>30103</v>
       </c>
       <c r="M24" s="3">
         <v>5</v>
@@ -4169,23 +4153,23 @@
         <v>新手任务-22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>1102005</v>
@@ -4217,14 +4201,14 @@
         <v>新手任务-23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>137</v>
+        <v>281</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>259</v>
@@ -4236,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>30102</v>
+        <v>30104</v>
       </c>
       <c r="M26" s="3">
         <v>5</v>
@@ -4265,27 +4249,25 @@
         <v>新手任务-24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>267</v>
+        <v>142</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="3">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1102004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3">
         <v>5</v>
       </c>
@@ -4313,27 +4295,25 @@
         <v>新手任务-25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>268</v>
+        <v>143</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>2</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1102004</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3">
         <v>5</v>
       </c>
@@ -4361,17 +4341,17 @@
         <v>新手任务-26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>140</v>
+        <v>284</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
@@ -4380,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3">
-        <v>30103</v>
+        <v>10201</v>
       </c>
       <c r="M29" s="3">
         <v>5</v>
@@ -4409,26 +4389,26 @@
         <v>新手任务-27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>1102005</v>
+        <v>1102004</v>
       </c>
       <c r="M30" s="3">
         <v>5</v>
@@ -4457,17 +4437,17 @@
         <v>新手任务-28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -4476,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3">
-        <v>30104</v>
+        <v>10202</v>
       </c>
       <c r="M31" s="3">
         <v>5</v>
@@ -4505,25 +4485,27 @@
         <v>新手任务-29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="J32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>1102015</v>
+      </c>
       <c r="M32" s="3">
         <v>5</v>
       </c>
@@ -4551,25 +4533,27 @@
         <v>新手任务-30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>150</v>
+        <v>287</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10203</v>
+      </c>
       <c r="M33" s="3">
         <v>5</v>
       </c>
@@ -4597,14 +4581,14 @@
         <v>新手任务-31</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>264</v>
@@ -4616,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3">
-        <v>10201</v>
+        <v>10204</v>
       </c>
       <c r="M34" s="3">
         <v>5</v>
@@ -4645,26 +4629,26 @@
         <v>新手任务-32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="3">
-        <v>1102004</v>
+        <v>10</v>
       </c>
       <c r="M35" s="3">
         <v>5</v>
@@ -4693,14 +4677,14 @@
         <v>新手任务-33</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>61</v>
+        <v>288</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>264</v>
@@ -4712,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3">
-        <v>10202</v>
+        <v>10205</v>
       </c>
       <c r="M36" s="3">
         <v>5</v>
@@ -4741,17 +4725,17 @@
         <v>新手任务-34</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -4760,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3">
-        <v>1102015</v>
+        <v>10206</v>
       </c>
       <c r="M37" s="3">
         <v>5</v>
@@ -4789,27 +4773,25 @@
         <v>新手任务-35</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>62</v>
+        <v>166</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>10203</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="M38" s="3">
         <v>5</v>
       </c>
@@ -4837,14 +4819,14 @@
         <v>新手任务-36</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>264</v>
@@ -4856,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3">
-        <v>10204</v>
+        <v>10207</v>
       </c>
       <c r="M39" s="3">
         <v>5</v>
@@ -4885,26 +4867,26 @@
         <v>新手任务-37</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="3">
-        <v>10</v>
+        <v>20101</v>
       </c>
       <c r="M40" s="3">
         <v>5</v>
@@ -4933,14 +4915,14 @@
         <v>新手任务-38</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>64</v>
+        <v>193</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>264</v>
@@ -4952,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3">
-        <v>10205</v>
+        <v>20102</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
@@ -4981,14 +4963,14 @@
         <v>新手任务-39</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>65</v>
+        <v>194</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>264</v>
@@ -5000,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="3">
-        <v>10206</v>
+        <v>20103</v>
       </c>
       <c r="M42" s="3">
         <v>5</v>
@@ -5029,25 +5011,27 @@
         <v>新手任务-40</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>272</v>
+        <v>153</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
       <c r="K43" s="3">
-        <v>15</v>
-      </c>
-      <c r="L43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2011</v>
+      </c>
       <c r="M43" s="3">
         <v>5</v>
       </c>
@@ -5075,17 +5059,17 @@
         <v>新手任务-41</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
@@ -5094,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3">
-        <v>10207</v>
+        <v>201</v>
       </c>
       <c r="M44" s="3">
         <v>5</v>
@@ -5123,17 +5107,17 @@
         <v>新手任务-42</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>264</v>
+        <v>186</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -5142,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3">
-        <v>20101</v>
+        <v>2013</v>
       </c>
       <c r="M45" s="3">
         <v>5</v>
@@ -5171,27 +5155,25 @@
         <v>新手任务-43</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
       <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>20102</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="3">
         <v>5</v>
       </c>
@@ -5219,14 +5201,14 @@
         <v>新手任务-44</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>59</v>
+        <v>195</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>264</v>
@@ -5238,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3">
-        <v>20103</v>
+        <v>10208</v>
       </c>
       <c r="M47" s="3">
         <v>5</v>
@@ -5267,17 +5249,17 @@
         <v>新手任务-45</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
@@ -5286,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3">
-        <v>2011</v>
+        <v>10209</v>
       </c>
       <c r="M48" s="3">
         <v>5</v>
@@ -5315,17 +5297,17 @@
         <v>新手任务-46</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>152</v>
+        <v>290</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -5334,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="3">
-        <v>201</v>
+        <v>30201</v>
       </c>
       <c r="M49" s="3">
         <v>5</v>
@@ -5363,17 +5345,17 @@
         <v>新手任务-47</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>151</v>
+        <v>197</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -5382,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3">
-        <v>2013</v>
+        <v>30202</v>
       </c>
       <c r="M50" s="3">
         <v>5</v>
@@ -5411,25 +5393,27 @@
         <v>新手任务-48</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>155</v>
+        <v>198</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3">
-        <v>3</v>
-      </c>
-      <c r="L51" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <v>30203</v>
+      </c>
       <c r="M51" s="3">
         <v>5</v>
       </c>
@@ -5457,17 +5441,17 @@
         <v>新手任务-49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>67</v>
+        <v>199</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
@@ -5476,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3">
-        <v>10208</v>
+        <v>30204</v>
       </c>
       <c r="M52" s="3">
         <v>5</v>
@@ -5505,17 +5489,17 @@
         <v>新手任务-50</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
@@ -5524,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3">
-        <v>10209</v>
+        <v>30205</v>
       </c>
       <c r="M53" s="3">
         <v>5</v>
@@ -5553,14 +5537,14 @@
         <v>新手任务-51</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="3" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>259</v>
@@ -5572,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="3">
-        <v>30201</v>
+        <v>30206</v>
       </c>
       <c r="M54" s="3">
         <v>5</v>
@@ -5601,17 +5585,17 @@
         <v>新手任务-52</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>259</v>
+      <c r="G55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -5620,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>30202</v>
+        <v>1501001</v>
       </c>
       <c r="M55" s="3">
         <v>5</v>
@@ -5649,17 +5633,17 @@
         <v>新手任务-53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>259</v>
+      <c r="G56" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
@@ -5668,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>30203</v>
+        <v>1501002</v>
       </c>
       <c r="M56" s="3">
         <v>5</v>
@@ -5697,17 +5681,17 @@
         <v>新手任务-54</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>259</v>
+      <c r="G57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
@@ -5716,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>30204</v>
+        <v>1501003</v>
       </c>
       <c r="M57" s="3">
         <v>5</v>
@@ -5745,17 +5729,17 @@
         <v>新手任务-55</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>259</v>
+      <c r="G58" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -5764,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3">
-        <v>30205</v>
+        <v>1501004</v>
       </c>
       <c r="M58" s="3">
         <v>5</v>
@@ -5793,17 +5777,17 @@
         <v>新手任务-56</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>259</v>
+        <v>70</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -5812,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="3">
-        <v>30206</v>
+        <v>101</v>
       </c>
       <c r="M59" s="3">
         <v>5</v>
@@ -5841,17 +5825,17 @@
         <v>新手任务-57</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>264</v>
+      <c r="G60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -5860,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3">
-        <v>1501001</v>
+        <v>30207</v>
       </c>
       <c r="M60" s="3">
         <v>5</v>
@@ -5889,17 +5873,17 @@
         <v>新手任务-58</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>264</v>
+      <c r="G61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -5908,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3">
-        <v>1501002</v>
+        <v>30208</v>
       </c>
       <c r="M61" s="3">
         <v>5</v>
@@ -5937,26 +5921,26 @@
         <v>新手任务-59</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>264</v>
+      <c r="G62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
       </c>
       <c r="K62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" s="3">
-        <v>1501003</v>
+        <v>20</v>
       </c>
       <c r="M62" s="3">
         <v>5</v>
@@ -5985,16 +5969,16 @@
         <v>新手任务-60</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>264</v>
       </c>
       <c r="J63" s="3">
@@ -6004,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3">
-        <v>1501004</v>
+        <v>10301</v>
       </c>
       <c r="M63" s="3">
         <v>5</v>
@@ -6033,17 +6017,17 @@
         <v>新手任务-61</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>157</v>
+        <v>72</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -6052,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="3">
-        <v>101</v>
+        <v>10302</v>
       </c>
       <c r="M64" s="3">
         <v>5</v>
@@ -6081,17 +6065,17 @@
         <v>新手任务-62</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -6100,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3">
-        <v>30207</v>
+        <v>10303</v>
       </c>
       <c r="M65" s="3">
         <v>5</v>
@@ -6129,17 +6113,17 @@
         <v>新手任务-63</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -6148,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3">
-        <v>30208</v>
+        <v>10304</v>
       </c>
       <c r="M66" s="3">
         <v>5</v>
@@ -6177,26 +6161,26 @@
         <v>新手任务-64</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
       <c r="K67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3">
-        <v>20</v>
+        <v>10305</v>
       </c>
       <c r="M67" s="3">
         <v>5</v>
@@ -6225,14 +6209,14 @@
         <v>新手任务-65</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>264</v>
@@ -6244,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3">
-        <v>10301</v>
+        <v>10306</v>
       </c>
       <c r="M68" s="3">
         <v>5</v>
@@ -6269,18 +6253,18 @@
         <v>10067</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" ref="D69:D132" si="1">"新手任务-"&amp;B69</f>
+        <f t="shared" ref="D69:D128" si="1">"新手任务-"&amp;B69</f>
         <v>新手任务-66</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>264</v>
@@ -6292,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>10302</v>
+        <v>10307</v>
       </c>
       <c r="M69" s="3">
         <v>5</v>
@@ -6321,14 +6305,14 @@
         <v>新手任务-67</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>264</v>
@@ -6340,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="3">
-        <v>10303</v>
+        <v>10308</v>
       </c>
       <c r="M70" s="3">
         <v>5</v>
@@ -6369,14 +6353,14 @@
         <v>新手任务-68</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>264</v>
@@ -6388,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="3">
-        <v>10304</v>
+        <v>10309</v>
       </c>
       <c r="M71" s="3">
         <v>5</v>
@@ -6417,17 +6401,17 @@
         <v>新手任务-69</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>75</v>
+        <v>292</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
@@ -6435,9 +6419,7 @@
       <c r="K72" s="3">
         <v>1</v>
       </c>
-      <c r="L72" s="3">
-        <v>10305</v>
-      </c>
+      <c r="L72" s="3"/>
       <c r="M72" s="3">
         <v>5</v>
       </c>
@@ -6465,17 +6447,17 @@
         <v>新手任务-70</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
@@ -6484,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="3">
-        <v>10306</v>
+        <v>30301</v>
       </c>
       <c r="M73" s="3">
         <v>5</v>
@@ -6513,17 +6495,17 @@
         <v>新手任务-71</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -6532,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3">
-        <v>10307</v>
+        <v>30302</v>
       </c>
       <c r="M74" s="3">
         <v>5</v>
@@ -6561,17 +6543,17 @@
         <v>新手任务-72</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
@@ -6580,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="3">
-        <v>10308</v>
+        <v>30303</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
@@ -6609,17 +6591,17 @@
         <v>新手任务-73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
@@ -6628,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3">
-        <v>10309</v>
+        <v>30304</v>
       </c>
       <c r="M76" s="3">
         <v>5</v>
@@ -6657,17 +6639,17 @@
         <v>新手任务-74</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>103</v>
+        <v>217</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -6675,7 +6657,9 @@
       <c r="K77" s="3">
         <v>1</v>
       </c>
-      <c r="L77" s="3"/>
+      <c r="L77" s="3">
+        <v>30305</v>
+      </c>
       <c r="M77" s="3">
         <v>5</v>
       </c>
@@ -6703,14 +6687,14 @@
         <v>新手任务-75</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>259</v>
@@ -6722,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="3">
-        <v>30301</v>
+        <v>30306</v>
       </c>
       <c r="M78" s="3">
         <v>5</v>
@@ -6751,26 +6735,26 @@
         <v>新手任务-76</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>82</v>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J79" s="3">
         <v>1</v>
       </c>
       <c r="K79" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L79" s="3">
-        <v>30302</v>
+        <v>202</v>
       </c>
       <c r="M79" s="3">
         <v>5</v>
@@ -6799,26 +6783,23 @@
         <v>新手任务-77</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>83</v>
+        <v>190</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
       </c>
       <c r="K80" s="3">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3">
-        <v>30303</v>
+        <v>3</v>
       </c>
       <c r="M80" s="3">
         <v>5</v>
@@ -6847,14 +6828,14 @@
         <v>新手任务-78</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>259</v>
@@ -6866,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3">
-        <v>30304</v>
+        <v>30307</v>
       </c>
       <c r="M81" s="3">
         <v>5</v>
@@ -6895,17 +6876,17 @@
         <v>新手任务-79</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="3" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>259</v>
+        <v>90</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
@@ -6914,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="3">
-        <v>30305</v>
+        <v>1501005</v>
       </c>
       <c r="M82" s="3">
         <v>5</v>
@@ -6943,17 +6924,17 @@
         <v>新手任务-80</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="3" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>259</v>
+        <v>91</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J83" s="3">
         <v>1</v>
@@ -6962,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3">
-        <v>30306</v>
+        <v>1501006</v>
       </c>
       <c r="M83" s="3">
         <v>5</v>
@@ -6991,26 +6972,26 @@
         <v>新手任务-81</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>265</v>
+      <c r="G84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
       <c r="K84" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L84" s="3">
-        <v>202</v>
+        <v>1501007</v>
       </c>
       <c r="M84" s="3">
         <v>5</v>
@@ -7039,23 +7020,26 @@
         <v>新手任务-82</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="3" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>275</v>
+        <v>114</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J85" s="3">
         <v>1</v>
       </c>
       <c r="K85" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L85" s="3">
+        <v>101</v>
       </c>
       <c r="M85" s="3">
         <v>5</v>
@@ -7084,14 +7068,14 @@
         <v>新手任务-83</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>259</v>
@@ -7103,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="3">
-        <v>30307</v>
+        <v>30308</v>
       </c>
       <c r="M86" s="3">
         <v>5</v>
@@ -7132,17 +7116,17 @@
         <v>新手任务-84</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>264</v>
+        <v>221</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
@@ -7151,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="3">
-        <v>1501005</v>
+        <v>30309</v>
       </c>
       <c r="M87" s="3">
         <v>5</v>
@@ -7180,27 +7164,25 @@
         <v>新手任务-85</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>264</v>
+        <v>283</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="J88" s="3">
         <v>1</v>
       </c>
       <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1501006</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L88" s="3"/>
       <c r="M88" s="3">
         <v>5</v>
       </c>
@@ -7228,16 +7210,16 @@
         <v>新手任务-86</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>264</v>
       </c>
       <c r="J89" s="3">
@@ -7247,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="3">
-        <v>1501007</v>
+        <v>10401</v>
       </c>
       <c r="M89" s="3">
         <v>5</v>
@@ -7276,26 +7258,26 @@
         <v>新手任务-87</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="3" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>160</v>
+        <v>95</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
       </c>
       <c r="K90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L90" s="3">
-        <v>101</v>
+        <v>10402</v>
       </c>
       <c r="M90" s="3">
         <v>5</v>
@@ -7324,17 +7306,17 @@
         <v>新手任务-88</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>88</v>
+        <v>224</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J91" s="3">
         <v>1</v>
@@ -7343,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3">
-        <v>30308</v>
+        <v>10403</v>
       </c>
       <c r="M91" s="3">
         <v>5</v>
@@ -7372,17 +7354,17 @@
         <v>新手任务-89</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
@@ -7391,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="3">
-        <v>30309</v>
+        <v>10404</v>
       </c>
       <c r="M92" s="3">
         <v>5</v>
@@ -7420,25 +7402,27 @@
         <v>新手任务-90</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="J93" s="3">
         <v>1</v>
       </c>
       <c r="K93" s="3">
-        <v>30</v>
-      </c>
-      <c r="L93" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>10405</v>
+      </c>
       <c r="M93" s="3">
         <v>5</v>
       </c>
@@ -7466,14 +7450,14 @@
         <v>新手任务-91</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>264</v>
@@ -7485,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="3">
-        <v>10401</v>
+        <v>10406</v>
       </c>
       <c r="M94" s="3">
         <v>5</v>
@@ -7514,14 +7498,14 @@
         <v>新手任务-92</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>264</v>
@@ -7533,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="3">
-        <v>10402</v>
+        <v>10407</v>
       </c>
       <c r="M95" s="3">
         <v>5</v>
@@ -7562,14 +7546,14 @@
         <v>新手任务-93</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>264</v>
@@ -7581,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="3">
-        <v>10403</v>
+        <v>10408</v>
       </c>
       <c r="M96" s="3">
         <v>5</v>
@@ -7610,14 +7594,14 @@
         <v>新手任务-94</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>264</v>
@@ -7629,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="3">
-        <v>10404</v>
+        <v>10409</v>
       </c>
       <c r="M97" s="3">
         <v>5</v>
@@ -7658,17 +7642,17 @@
         <v>新手任务-95</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J98" s="3">
         <v>1</v>
@@ -7677,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="3">
-        <v>10405</v>
+        <v>30401</v>
       </c>
       <c r="M98" s="3">
         <v>5</v>
@@ -7706,17 +7690,17 @@
         <v>新手任务-96</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J99" s="3">
         <v>1</v>
@@ -7725,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="3">
-        <v>10406</v>
+        <v>30402</v>
       </c>
       <c r="M99" s="3">
         <v>5</v>
@@ -7754,17 +7738,17 @@
         <v>新手任务-97</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J100" s="3">
         <v>1</v>
@@ -7773,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="3">
-        <v>10407</v>
+        <v>30403</v>
       </c>
       <c r="M100" s="3">
         <v>5</v>
@@ -7802,17 +7786,17 @@
         <v>新手任务-98</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J101" s="3">
         <v>1</v>
@@ -7821,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="3">
-        <v>10408</v>
+        <v>30404</v>
       </c>
       <c r="M101" s="3">
         <v>5</v>
@@ -7850,17 +7834,17 @@
         <v>新手任务-99</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -7869,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="3">
-        <v>10409</v>
+        <v>30405</v>
       </c>
       <c r="M102" s="3">
         <v>5</v>
@@ -7898,17 +7882,17 @@
         <v>新手任务-100</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>107</v>
+        <v>320</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J103" s="3">
         <v>1</v>
@@ -7917,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="3">
-        <v>30401</v>
+        <v>10301</v>
       </c>
       <c r="M103" s="3">
         <v>5</v>
@@ -7946,17 +7930,17 @@
         <v>新手任务-101</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>108</v>
+        <v>320</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J104" s="3">
         <v>1</v>
@@ -7965,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="3">
-        <v>30402</v>
+        <v>10302</v>
       </c>
       <c r="M104" s="3">
         <v>5</v>
@@ -7994,17 +7978,17 @@
         <v>新手任务-102</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>109</v>
+        <v>320</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J105" s="3">
         <v>1</v>
@@ -8013,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="3">
-        <v>30403</v>
+        <v>10303</v>
       </c>
       <c r="M105" s="3">
         <v>5</v>
@@ -8042,17 +8026,17 @@
         <v>新手任务-103</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>110</v>
+        <v>320</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -8061,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="3">
-        <v>30404</v>
+        <v>10304</v>
       </c>
       <c r="M106" s="3">
         <v>5</v>
@@ -8090,26 +8074,26 @@
         <v>新手任务-104</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="J107" s="3">
         <v>1</v>
       </c>
       <c r="K107" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L107" s="3">
-        <v>30405</v>
+        <v>10305</v>
       </c>
       <c r="M107" s="3">
         <v>5</v>
@@ -8138,17 +8122,17 @@
         <v>新手任务-105</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>116</v>
+        <v>294</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
@@ -8157,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="3">
-        <v>10301</v>
+        <v>1</v>
       </c>
       <c r="M108" s="3">
         <v>5</v>
@@ -8186,27 +8170,25 @@
         <v>新手任务-106</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>264</v>
+        <v>295</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="J109" s="3">
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <v>1</v>
-      </c>
-      <c r="L109" s="3">
-        <v>10302</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L109" s="3"/>
       <c r="M109" s="3">
         <v>5</v>
       </c>
@@ -8233,15 +8215,15 @@
         <f t="shared" si="1"/>
         <v>新手任务-107</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F110" s="4"/>
+      <c r="E110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>264</v>
@@ -8253,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="3">
-        <v>10303</v>
+        <v>10305</v>
       </c>
       <c r="M110" s="3">
         <v>5</v>
@@ -8281,15 +8263,15 @@
         <f t="shared" si="1"/>
         <v>新手任务-108</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F111" s="4"/>
+      <c r="E111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>264</v>
@@ -8301,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="3">
-        <v>10304</v>
+        <v>10306</v>
       </c>
       <c r="M111" s="3">
         <v>5</v>
@@ -8329,27 +8311,27 @@
         <f t="shared" si="1"/>
         <v>新手任务-109</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F112" s="4"/>
+      <c r="E112" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="J112" s="3">
         <v>1</v>
       </c>
       <c r="K112" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L112" s="3">
-        <v>10305</v>
+        <v>10307</v>
       </c>
       <c r="M112" s="3">
         <v>5</v>
@@ -8377,18 +8359,18 @@
         <f t="shared" si="1"/>
         <v>新手任务-110</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F113" s="4"/>
+      <c r="E113" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J113" s="3">
         <v>1</v>
@@ -8397,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="3">
-        <v>1</v>
+        <v>10308</v>
       </c>
       <c r="M113" s="3">
         <v>5</v>
@@ -8425,26 +8407,28 @@
         <f t="shared" si="1"/>
         <v>新手任务-111</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F114" s="4"/>
+      <c r="E114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="3"/>
       <c r="G114" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
       </c>
       <c r="K114" s="3">
-        <v>5</v>
-      </c>
-      <c r="L114" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L114" s="3">
+        <v>10309</v>
+      </c>
       <c r="M114" s="3">
         <v>5</v>
       </c>
@@ -8471,28 +8455,26 @@
         <f t="shared" si="1"/>
         <v>新手任务-112</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F115" s="3"/>
+      <c r="E115" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>120</v>
+        <v>296</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="J115" s="3">
         <v>1</v>
       </c>
       <c r="K115" s="3">
-        <v>1</v>
-      </c>
-      <c r="L115" s="3">
-        <v>10305</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L115" s="3"/>
       <c r="M115" s="3">
         <v>5</v>
       </c>
@@ -8519,18 +8501,18 @@
         <f t="shared" si="1"/>
         <v>新手任务-113</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F116" s="3"/>
+      <c r="E116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>121</v>
+        <v>236</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J116" s="3">
         <v>1</v>
@@ -8539,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="3">
-        <v>10306</v>
+        <v>30406</v>
       </c>
       <c r="M116" s="3">
         <v>5</v>
@@ -8567,17 +8549,17 @@
         <f t="shared" si="1"/>
         <v>新手任务-114</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F117" s="3"/>
+      <c r="E117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I117" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>264</v>
       </c>
       <c r="J117" s="3">
@@ -8587,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="3">
-        <v>10307</v>
+        <v>1501008</v>
       </c>
       <c r="M117" s="3">
         <v>5</v>
@@ -8615,17 +8597,17 @@
         <f t="shared" si="1"/>
         <v>新手任务-115</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="3"/>
+      <c r="E118" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F118" s="4"/>
       <c r="G118" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I118" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>264</v>
       </c>
       <c r="J118" s="3">
@@ -8635,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="3">
-        <v>10308</v>
+        <v>1501009</v>
       </c>
       <c r="M118" s="3">
         <v>5</v>
@@ -8663,17 +8645,17 @@
         <f t="shared" si="1"/>
         <v>新手任务-116</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F119" s="3"/>
+      <c r="E119" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="3" t="s">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I119" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I119" s="3" t="s">
         <v>264</v>
       </c>
       <c r="J119" s="3">
@@ -8683,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="3">
-        <v>10309</v>
+        <v>1501010</v>
       </c>
       <c r="M119" s="3">
         <v>5</v>
@@ -8712,25 +8694,27 @@
         <v>新手任务-117</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>276</v>
+        <v>163</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J120" s="3">
         <v>1</v>
       </c>
       <c r="K120" s="3">
-        <v>4</v>
-      </c>
-      <c r="L120" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="L120" s="3">
+        <v>101</v>
+      </c>
       <c r="M120" s="3">
         <v>5</v>
       </c>
@@ -8758,14 +8742,14 @@
         <v>新手任务-118</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>259</v>
@@ -8777,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="3">
-        <v>30406</v>
+        <v>30407</v>
       </c>
       <c r="M121" s="3">
         <v>5</v>
@@ -8806,17 +8790,17 @@
         <v>新手任务-119</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="3" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>264</v>
+        <v>115</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -8825,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="3">
-        <v>1501008</v>
+        <v>30408</v>
       </c>
       <c r="M122" s="3">
         <v>5</v>
@@ -8857,11 +8841,11 @@
         <v>251</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="3" t="s">
-        <v>339</v>
+      <c r="G123" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>264</v>
@@ -8873,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="3">
-        <v>1501009</v>
+        <v>1502001</v>
       </c>
       <c r="M123" s="3">
         <v>5</v>
@@ -8905,11 +8889,11 @@
         <v>251</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>106</v>
+      <c r="G124" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>264</v>
@@ -8921,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="3">
-        <v>1501010</v>
+        <v>1502002</v>
       </c>
       <c r="M124" s="3">
         <v>5</v>
@@ -8950,26 +8934,26 @@
         <v>新手任务-122</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F125" s="4"/>
-      <c r="G125" s="3" t="s">
-        <v>293</v>
+      <c r="G125" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="J125" s="3">
         <v>1</v>
       </c>
       <c r="K125" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L125" s="3">
-        <v>101</v>
+        <v>1502003</v>
       </c>
       <c r="M125" s="3">
         <v>5</v>
@@ -8998,17 +8982,17 @@
         <v>新手任务-123</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F126" s="4"/>
-      <c r="G126" s="3" t="s">
-        <v>237</v>
+      <c r="G126" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>259</v>
+        <v>133</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="J126" s="3">
         <v>1</v>
@@ -9017,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="3">
-        <v>30407</v>
+        <v>1502004</v>
       </c>
       <c r="M126" s="3">
         <v>5</v>
@@ -9046,14 +9030,14 @@
         <v>新手任务-124</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>259</v>
@@ -9065,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="3">
-        <v>30408</v>
+        <v>30409</v>
       </c>
       <c r="M127" s="3">
         <v>5</v>
@@ -9087,34 +9071,32 @@
         <v>125</v>
       </c>
       <c r="C128" s="3">
-        <v>10126</v>
+        <v>-1</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="1"/>
         <v>新手任务-125</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F128" s="4"/>
-      <c r="G128" s="4" t="s">
-        <v>339</v>
+      <c r="G128" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>264</v>
+        <v>134</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="J128" s="3">
         <v>1</v>
       </c>
       <c r="K128" s="3">
-        <v>1</v>
-      </c>
-      <c r="L128" s="3">
-        <v>1502001</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L128" s="3"/>
       <c r="M128" s="3">
         <v>5</v>
       </c>
@@ -9128,240 +9110,97 @@
       <c r="Q128" s="3"/>
     </row>
     <row r="129" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>10126</v>
-      </c>
-      <c r="B129" s="3">
-        <v>126</v>
-      </c>
-      <c r="C129" s="3">
-        <v>10127</v>
-      </c>
-      <c r="D129" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>新手任务-126</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J129" s="3">
-        <v>1</v>
-      </c>
-      <c r="K129" s="3">
-        <v>1</v>
-      </c>
-      <c r="L129" s="3">
-        <v>1502002</v>
-      </c>
-      <c r="M129" s="3">
-        <v>5</v>
-      </c>
-      <c r="N129" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O129" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
     <row r="130" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>10127</v>
-      </c>
-      <c r="B130" s="3">
-        <v>127</v>
-      </c>
-      <c r="C130" s="3">
-        <v>10128</v>
-      </c>
-      <c r="D130" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>新手任务-127</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J130" s="3">
-        <v>1</v>
-      </c>
-      <c r="K130" s="3">
-        <v>1</v>
-      </c>
-      <c r="L130" s="3">
-        <v>1502003</v>
-      </c>
-      <c r="M130" s="3">
-        <v>5</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O130" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
     <row r="131" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>10128</v>
-      </c>
-      <c r="B131" s="3">
-        <v>128</v>
-      </c>
-      <c r="C131" s="3">
-        <v>10129</v>
-      </c>
-      <c r="D131" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>新手任务-128</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J131" s="3">
-        <v>1</v>
-      </c>
-      <c r="K131" s="3">
-        <v>1</v>
-      </c>
-      <c r="L131" s="3">
-        <v>1502004</v>
-      </c>
-      <c r="M131" s="3">
-        <v>5</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O131" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
     <row r="132" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <v>10129</v>
-      </c>
-      <c r="B132" s="3">
-        <v>129</v>
-      </c>
-      <c r="C132" s="3">
-        <v>10130</v>
-      </c>
-      <c r="D132" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>新手任务-129</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J132" s="3">
-        <v>1</v>
-      </c>
-      <c r="K132" s="3">
-        <v>1</v>
-      </c>
-      <c r="L132" s="3">
-        <v>30409</v>
-      </c>
-      <c r="M132" s="3">
-        <v>5</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O132" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
     <row r="133" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>10130</v>
-      </c>
-      <c r="B133" s="3">
-        <v>130</v>
-      </c>
-      <c r="C133" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D133" s="3" t="str">
-        <f t="shared" ref="D133" si="2">"新手任务-"&amp;B133</f>
-        <v>新手任务-130</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J133" s="3">
-        <v>1</v>
-      </c>
-      <c r="K133" s="3">
-        <v>40</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-      <c r="M133" s="3">
-        <v>5</v>
-      </c>
-      <c r="N133" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O133" s="3">
-        <v>1000</v>
-      </c>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
@@ -9574,101 +9413,6 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row r="145" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
-    </row>
-    <row r="146" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-      <c r="Q146" s="3"/>
-    </row>
-    <row r="147" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
-    </row>
-    <row r="148" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-      <c r="Q148" s="3"/>
-    </row>
-    <row r="149" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6B4F6-4372-41EE-85B9-B5EE52FE3B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="主线任务" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="318">
   <si>
     <t>sheet名</t>
   </si>
@@ -1841,9 +1840,6 @@
     <t>获得唐流雨</t>
   </si>
   <si>
-    <t>拥有3个3级守护灵</t>
-  </si>
-  <si>
     <t>突破地狱道</t>
   </si>
   <si>
@@ -1857,14 +1853,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>进行一次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再进行一次通灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换一次技能</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1884,15 +1872,7 @@
     <t>地狱道</t>
   </si>
   <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>前方的寄灵人很厉害，快去突破地狱道，进阶到黑绳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3个3级守护灵，前方的敌人更强大了，快去培养守护灵</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1980,9 +1960,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵突破-id</t>
-  </si>
-  <si>
     <t>通关普通关1-9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1995,10 +1972,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>通关普通关1-6，阎巧巧的烈风螳螂很厉害，使用曹焱兵的困龙火烛，不要让她招出守护灵。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>快把新获得的守护灵配给夏铃，通关普通关1-4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2015,10 +1988,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>把唐流雨突破，应对前方的挑战。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>领取宝箱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2078,13 +2047,61 @@
   </si>
   <si>
     <t>进行5次守护灵抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关1-6，阎巧巧的烈风螳螂很厉害，不要让她招出守护灵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次守护灵召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再进行一次守护灵召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有2个5级守护灵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方的敌人更强大了，快把唐流雨突破</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵要检验我们的实力，快把我们的2个守护灵升到5级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验3连击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给唐流雨装备2个追击插槽技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能装备-shlid-cnt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2318,19 +2335,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2607,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,31 +2737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="62.375" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="62.375" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>225</v>
       </c>
@@ -2755,40 +2773,43 @@
         <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2799,40 +2820,43 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2843,40 +2867,43 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -2886,37 +2913,40 @@
       <c r="C4" s="3">
         <v>10002</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>279</v>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>10102</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>5</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1000</v>
+      </c>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
@@ -2926,37 +2956,40 @@
       <c r="C5" s="3">
         <v>10003</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
         <v>1102004</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1000</v>
+      </c>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10003</v>
       </c>
@@ -2966,37 +2999,40 @@
       <c r="C6" s="3">
         <v>10004</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>281</v>
+      <c r="D6" s="3">
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>10103</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="3"/>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1000</v>
+      </c>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>10004</v>
       </c>
@@ -3006,35 +3042,38 @@
       <c r="C7" s="3">
         <v>10005</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>305</v>
+      <c r="D7" s="3">
+        <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
         <v>15</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="3"/>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1000</v>
+      </c>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>10005</v>
       </c>
@@ -3044,37 +3083,40 @@
       <c r="C8" s="3">
         <v>10006</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>282</v>
+      <c r="D8" s="3">
+        <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>10104</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10006</v>
       </c>
@@ -3084,35 +3126,38 @@
       <c r="C9" s="3">
         <v>10007</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>306</v>
+      <c r="D9" s="3">
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
       <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="L9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1000</v>
+      </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10007</v>
       </c>
@@ -3122,35 +3167,38 @@
       <c r="C10" s="3">
         <v>10008</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>25</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1000</v>
+      </c>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10008</v>
       </c>
@@ -3160,37 +3208,40 @@
       <c r="C11" s="3">
         <v>10009</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>283</v>
+      <c r="D11" s="3">
+        <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>10105</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>15</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1000</v>
+      </c>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10009</v>
       </c>
@@ -3200,37 +3251,40 @@
       <c r="C12" s="3">
         <v>10010</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>284</v>
+      <c r="D12" s="3">
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>10106</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="3"/>
+      <c r="L12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1000</v>
+      </c>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10010</v>
       </c>
@@ -3240,37 +3294,40 @@
       <c r="C13" s="3">
         <v>10011</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>265</v>
+      <c r="D13" s="3">
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>45</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="L13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1000</v>
+      </c>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10011</v>
       </c>
@@ -3280,37 +3337,40 @@
       <c r="C14" s="3">
         <v>10012</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
       <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>10107</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1000</v>
+      </c>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10012</v>
       </c>
@@ -3320,37 +3380,40 @@
       <c r="C15" s="3">
         <v>10013</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>264</v>
+      <c r="D15" s="3">
+        <v>5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>1102004</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1000</v>
+      </c>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10013</v>
       </c>
@@ -3360,37 +3423,40 @@
       <c r="C16" s="3">
         <v>10014</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>286</v>
+      <c r="D16" s="3">
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>10108</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>1102004</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1000</v>
+      </c>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10014</v>
       </c>
@@ -3400,37 +3466,40 @@
       <c r="C17" s="3">
         <v>10015</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>280</v>
+      <c r="D17" s="3">
+        <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1102004</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>40</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>10108</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1000</v>
+      </c>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10015</v>
       </c>
@@ -3440,37 +3509,40 @@
       <c r="C18" s="3">
         <v>10016</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>287</v>
+      <c r="D18" s="3">
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
+        <v>314</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>10109</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>40</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1000</v>
+      </c>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10016</v>
       </c>
@@ -3480,37 +3552,40 @@
       <c r="C19" s="3">
         <v>10017</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>30101</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>25</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>10109</v>
+      </c>
+      <c r="K19" s="3">
+        <v>15</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1000</v>
+      </c>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>10017</v>
       </c>
@@ -3520,37 +3595,40 @@
       <c r="C20" s="3">
         <v>10018</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>1013</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>30</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>30101</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1000</v>
+      </c>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>10018</v>
       </c>
@@ -3560,37 +3638,40 @@
       <c r="C21" s="3">
         <v>10019</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>301</v>
+      <c r="D21" s="3">
+        <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>1101001</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
+        <v>1013</v>
+      </c>
+      <c r="K21" s="3">
         <v>30</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="3"/>
+      <c r="L21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1000</v>
+      </c>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>10019</v>
       </c>
@@ -3600,37 +3681,40 @@
       <c r="C22" s="3">
         <v>10020</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>242</v>
+      <c r="D22" s="3">
+        <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
+        <v>294</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>30102</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>25</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>1101001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1000</v>
+      </c>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>10020</v>
       </c>
@@ -3640,35 +3724,40 @@
       <c r="C23" s="3">
         <v>10021</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>308</v>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
       <c r="J23" s="3">
-        <v>30</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>30102</v>
+      </c>
+      <c r="K23" s="3">
+        <v>25</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1000</v>
+      </c>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>10021</v>
       </c>
@@ -3678,37 +3767,38 @@
       <c r="C24" s="3">
         <v>10022</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>160</v>
+      <c r="D24" s="3">
+        <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
         <v>30</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="3"/>
+      <c r="L24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1000</v>
+      </c>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>10022</v>
       </c>
@@ -3718,37 +3808,40 @@
       <c r="C25" s="3">
         <v>10023</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>311</v>
+      <c r="D25" s="3">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
+        <v>302</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>1102004</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
+        <v>1102015</v>
+      </c>
+      <c r="K25" s="3">
         <v>30</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="3"/>
+      <c r="L25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1000</v>
+      </c>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>10023</v>
       </c>
@@ -3758,37 +3851,40 @@
       <c r="C26" s="3">
         <v>10024</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>135</v>
+      <c r="D26" s="3">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>30103</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>25</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>1102015</v>
+      </c>
+      <c r="K26" s="3">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1000</v>
+      </c>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>10024</v>
       </c>
@@ -3798,35 +3894,40 @@
       <c r="C27" s="3">
         <v>10025</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>313</v>
+      <c r="D27" s="3">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3">
-        <v>30</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="3"/>
+        <v>30103</v>
+      </c>
+      <c r="K27" s="3">
+        <v>25</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1000</v>
+      </c>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>10025</v>
       </c>
@@ -3836,37 +3937,38 @@
       <c r="C28" s="3">
         <v>10026</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>161</v>
+      <c r="D28" s="3">
+        <v>8</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="H28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>1102005</v>
-      </c>
-      <c r="J28" s="3">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>30</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M28" s="3"/>
+      <c r="L28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1000</v>
+      </c>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>10026</v>
       </c>
@@ -3876,37 +3978,40 @@
       <c r="C29" s="3">
         <v>10027</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>243</v>
+      <c r="D29" s="3">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>30104</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>25</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>1102005</v>
+      </c>
+      <c r="K29" s="3">
+        <v>30</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1000</v>
+      </c>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>10027</v>
       </c>
@@ -3916,35 +4021,40 @@
       <c r="C30" s="3">
         <v>10028</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>137</v>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
       <c r="J30" s="3">
-        <v>30</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>30104</v>
+      </c>
+      <c r="K30" s="3">
+        <v>25</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1000</v>
+      </c>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>10028</v>
       </c>
@@ -3954,35 +4064,38 @@
       <c r="C31" s="3">
         <v>10029</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="H31" s="3">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <v>20</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <v>30</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1000</v>
+      </c>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>10029</v>
       </c>
@@ -3992,37 +4105,38 @@
       <c r="C32" s="3">
         <v>10030</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>246</v>
+      <c r="D32" s="3">
+        <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="3">
-        <v>10201</v>
-      </c>
-      <c r="J32" s="3">
-        <v>45</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M32" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>20</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1000</v>
+      </c>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>10030</v>
       </c>
@@ -4032,37 +4146,38 @@
       <c r="C33" s="3">
         <v>10031</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>1102004</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3">
+        <v>10201</v>
+      </c>
+      <c r="K33" s="3">
         <v>45</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="3"/>
+      <c r="L33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1000</v>
+      </c>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>10031</v>
       </c>
@@ -4072,37 +4187,38 @@
       <c r="C34" s="3">
         <v>10032</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>10202</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
+        <v>1102004</v>
+      </c>
+      <c r="K34" s="3">
         <v>45</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="3"/>
+      <c r="L34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1000</v>
+      </c>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>10032</v>
       </c>
@@ -4112,37 +4228,38 @@
       <c r="C35" s="3">
         <v>10033</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>1102015</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3">
+        <v>10202</v>
+      </c>
+      <c r="K35" s="3">
         <v>45</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M35" s="3"/>
+      <c r="L35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1000</v>
+      </c>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>10033</v>
       </c>
@@ -4152,37 +4269,38 @@
       <c r="C36" s="3">
         <v>10034</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>10203</v>
+        <v>10</v>
       </c>
       <c r="J36" s="3">
+        <v>1102015</v>
+      </c>
+      <c r="K36" s="3">
         <v>45</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="3"/>
+      <c r="L36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1000</v>
+      </c>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>10034</v>
       </c>
@@ -4192,37 +4310,38 @@
       <c r="C37" s="3">
         <v>10035</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>10204</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3">
+        <v>10203</v>
+      </c>
+      <c r="K37" s="3">
         <v>45</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="3"/>
+      <c r="L37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1000</v>
+      </c>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>10035</v>
       </c>
@@ -4232,37 +4351,38 @@
       <c r="C38" s="3">
         <v>10036</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>141</v>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H38" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3">
+        <v>10204</v>
+      </c>
+      <c r="K38" s="3">
         <v>45</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M38" s="3"/>
+      <c r="L38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1000</v>
+      </c>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>10036</v>
       </c>
@@ -4272,37 +4392,38 @@
       <c r="C39" s="3">
         <v>10037</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>63</v>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="3">
-        <v>10205</v>
+        <v>3</v>
       </c>
       <c r="J39" s="3">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3">
         <v>45</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M39" s="3"/>
+      <c r="L39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1000</v>
+      </c>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>10037</v>
       </c>
@@ -4312,37 +4433,38 @@
       <c r="C40" s="3">
         <v>10038</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>64</v>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>10206</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3">
+        <v>10205</v>
+      </c>
+      <c r="K40" s="3">
         <v>45</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M40" s="3"/>
+      <c r="L40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1000</v>
+      </c>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>10038</v>
       </c>
@@ -4352,35 +4474,38 @@
       <c r="C41" s="3">
         <v>10039</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>142</v>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H41" s="3">
-        <v>15</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
       <c r="J41" s="3">
+        <v>10206</v>
+      </c>
+      <c r="K41" s="3">
         <v>45</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M41" s="3"/>
+      <c r="L41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1000</v>
+      </c>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>10039</v>
       </c>
@@ -4390,37 +4515,36 @@
       <c r="C42" s="3">
         <v>10040</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>65</v>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>10207</v>
-      </c>
-      <c r="J42" s="3">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <v>45</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M42" s="3"/>
+      <c r="L42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1000</v>
+      </c>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>10040</v>
       </c>
@@ -4430,37 +4554,38 @@
       <c r="C43" s="3">
         <v>10041</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" s="3">
-        <v>20101</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3">
+        <v>10207</v>
+      </c>
+      <c r="K43" s="3">
         <v>45</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="3"/>
+      <c r="L43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1000</v>
+      </c>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>10041</v>
       </c>
@@ -4470,37 +4595,38 @@
       <c r="C44" s="3">
         <v>10042</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="3">
-        <v>20102</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3">
+        <v>20101</v>
+      </c>
+      <c r="K44" s="3">
         <v>45</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="3"/>
+      <c r="L44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1000</v>
+      </c>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>10042</v>
       </c>
@@ -4510,37 +4636,38 @@
       <c r="C45" s="3">
         <v>10043</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="I45" s="3">
-        <v>20103</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3">
+        <v>20102</v>
+      </c>
+      <c r="K45" s="3">
         <v>45</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M45" s="3"/>
+      <c r="L45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1000</v>
+      </c>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>10043</v>
       </c>
@@ -4550,37 +4677,38 @@
       <c r="C46" s="3">
         <v>10044</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="3">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
+        <v>20103</v>
+      </c>
+      <c r="K46" s="3">
         <v>45</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="3"/>
+      <c r="L46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1000</v>
+      </c>
       <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>10044</v>
       </c>
@@ -4590,37 +4718,38 @@
       <c r="C47" s="3">
         <v>10045</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>147</v>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3">
+        <v>2011</v>
+      </c>
+      <c r="K47" s="3">
         <v>45</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M47" s="3"/>
+      <c r="L47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1000</v>
+      </c>
       <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>10045</v>
       </c>
@@ -4630,37 +4759,38 @@
       <c r="C48" s="3">
         <v>10046</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>2013</v>
+        <v>9</v>
       </c>
       <c r="J48" s="3">
+        <v>201</v>
+      </c>
+      <c r="K48" s="3">
         <v>45</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="3"/>
+      <c r="L48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1000</v>
+      </c>
       <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>10046</v>
       </c>
@@ -4670,35 +4800,38 @@
       <c r="C49" s="3">
         <v>10047</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>150</v>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="H49" s="3">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
       <c r="J49" s="3">
+        <v>2013</v>
+      </c>
+      <c r="K49" s="3">
         <v>45</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="3"/>
+      <c r="L49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1000</v>
+      </c>
       <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>10047</v>
       </c>
@@ -4708,37 +4841,36 @@
       <c r="C50" s="3">
         <v>10048</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>66</v>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>10208</v>
-      </c>
-      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>45</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M50" s="3"/>
+      <c r="L50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1000</v>
+      </c>
       <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>10048</v>
       </c>
@@ -4748,37 +4880,38 @@
       <c r="C51" s="3">
         <v>10049</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>151</v>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
       <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>10209</v>
+        <v>1</v>
       </c>
       <c r="J51" s="3">
+        <v>10208</v>
+      </c>
+      <c r="K51" s="3">
         <v>45</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M51" s="3"/>
+      <c r="L51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1000</v>
+      </c>
       <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>10049</v>
       </c>
@@ -4788,37 +4921,38 @@
       <c r="C52" s="3">
         <v>10050</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>30201</v>
+        <v>1</v>
       </c>
       <c r="J52" s="3">
+        <v>10209</v>
+      </c>
+      <c r="K52" s="3">
         <v>45</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M52" s="3"/>
+      <c r="L52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1000</v>
+      </c>
       <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>10050</v>
       </c>
@@ -4828,37 +4962,38 @@
       <c r="C53" s="3">
         <v>10051</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
       <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="I53" s="3">
-        <v>30202</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
+        <v>30201</v>
+      </c>
+      <c r="K53" s="3">
         <v>45</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M53" s="3"/>
+      <c r="L53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1000</v>
+      </c>
       <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>10051</v>
       </c>
@@ -4868,37 +5003,38 @@
       <c r="C54" s="3">
         <v>10052</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
       <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="I54" s="3">
-        <v>30203</v>
+        <v>1</v>
       </c>
       <c r="J54" s="3">
+        <v>30202</v>
+      </c>
+      <c r="K54" s="3">
         <v>45</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M54" s="3"/>
+      <c r="L54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1000</v>
+      </c>
       <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>10052</v>
       </c>
@@ -4908,37 +5044,38 @@
       <c r="C55" s="3">
         <v>10053</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
       <c r="H55" s="3">
         <v>1</v>
       </c>
       <c r="I55" s="3">
-        <v>30204</v>
+        <v>1</v>
       </c>
       <c r="J55" s="3">
+        <v>30203</v>
+      </c>
+      <c r="K55" s="3">
         <v>45</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M55" s="3"/>
+      <c r="L55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1000</v>
+      </c>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>10053</v>
       </c>
@@ -4948,37 +5085,38 @@
       <c r="C56" s="3">
         <v>10054</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
       <c r="I56" s="3">
-        <v>30205</v>
+        <v>1</v>
       </c>
       <c r="J56" s="3">
+        <v>30204</v>
+      </c>
+      <c r="K56" s="3">
         <v>45</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M56" s="3"/>
+      <c r="L56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1000</v>
+      </c>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>10054</v>
       </c>
@@ -4988,37 +5126,38 @@
       <c r="C57" s="3">
         <v>10055</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
       <c r="I57" s="3">
-        <v>30206</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
+        <v>30205</v>
+      </c>
+      <c r="K57" s="3">
         <v>45</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M57" s="3"/>
+      <c r="L57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
       <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>10055</v>
       </c>
@@ -5028,37 +5167,38 @@
       <c r="C58" s="3">
         <v>10056</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>218</v>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
       <c r="I58" s="3">
-        <v>1501001</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
+        <v>30206</v>
+      </c>
+      <c r="K58" s="3">
         <v>45</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M58" s="3"/>
+      <c r="L58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1000</v>
+      </c>
       <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>10056</v>
       </c>
@@ -5068,37 +5208,38 @@
       <c r="C59" s="3">
         <v>10057</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
       <c r="H59" s="3">
         <v>1</v>
       </c>
       <c r="I59" s="3">
-        <v>1501002</v>
+        <v>1</v>
       </c>
       <c r="J59" s="3">
+        <v>41001</v>
+      </c>
+      <c r="K59" s="3">
         <v>45</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M59" s="3"/>
+      <c r="L59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1000</v>
+      </c>
       <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>10057</v>
       </c>
@@ -5108,37 +5249,38 @@
       <c r="C60" s="3">
         <v>10058</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
       <c r="H60" s="3">
         <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>1501003</v>
+        <v>1</v>
       </c>
       <c r="J60" s="3">
+        <v>41002</v>
+      </c>
+      <c r="K60" s="3">
         <v>45</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M60" s="3"/>
+      <c r="L60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1000</v>
+      </c>
       <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>10058</v>
       </c>
@@ -5148,37 +5290,38 @@
       <c r="C61" s="3">
         <v>10059</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
       <c r="H61" s="3">
         <v>1</v>
       </c>
       <c r="I61" s="3">
-        <v>1501004</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3">
+        <v>41003</v>
+      </c>
+      <c r="K61" s="3">
         <v>45</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M61" s="3"/>
+      <c r="L61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1000</v>
+      </c>
       <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>10059</v>
       </c>
@@ -5188,37 +5331,38 @@
       <c r="C62" s="3">
         <v>10060</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
       </c>
       <c r="I62" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J62" s="3">
+        <v>41004</v>
+      </c>
+      <c r="K62" s="3">
         <v>45</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M62" s="3"/>
+      <c r="L62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1000</v>
+      </c>
       <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>10060</v>
       </c>
@@ -5228,37 +5372,38 @@
       <c r="C63" s="3">
         <v>10061</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>30207</v>
+        <v>1</v>
       </c>
       <c r="J63" s="3">
+        <v>101</v>
+      </c>
+      <c r="K63" s="3">
         <v>45</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L63" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M63" s="3"/>
+      <c r="L63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1000</v>
+      </c>
       <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>10061</v>
       </c>
@@ -5268,37 +5413,38 @@
       <c r="C64" s="3">
         <v>10062</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>30208</v>
+        <v>1</v>
       </c>
       <c r="J64" s="3">
+        <v>30207</v>
+      </c>
+      <c r="K64" s="3">
         <v>45</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M64" s="3"/>
+      <c r="L64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1000</v>
+      </c>
       <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>10062</v>
       </c>
@@ -5308,37 +5454,38 @@
       <c r="C65" s="3">
         <v>10063</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J65" s="3">
+        <v>30208</v>
+      </c>
+      <c r="K65" s="3">
         <v>45</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L65" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M65" s="3"/>
+      <c r="L65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1000</v>
+      </c>
       <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>10063</v>
       </c>
@@ -5348,37 +5495,38 @@
       <c r="C66" s="3">
         <v>10064</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
       <c r="I66" s="3">
-        <v>10301</v>
+        <v>3</v>
       </c>
       <c r="J66" s="3">
-        <v>50</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M66" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K66" s="3">
+        <v>45</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1000</v>
+      </c>
       <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>10064</v>
       </c>
@@ -5388,37 +5536,38 @@
       <c r="C67" s="3">
         <v>10065</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
       <c r="H67" s="3">
         <v>1</v>
       </c>
       <c r="I67" s="3">
-        <v>10302</v>
+        <v>1</v>
       </c>
       <c r="J67" s="3">
+        <v>10301</v>
+      </c>
+      <c r="K67" s="3">
         <v>50</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L67" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M67" s="3"/>
+      <c r="L67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" s="3">
+        <v>1000</v>
+      </c>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>10065</v>
       </c>
@@ -5428,37 +5577,38 @@
       <c r="C68" s="3">
         <v>10066</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>10303</v>
+        <v>1</v>
       </c>
       <c r="J68" s="3">
+        <v>10302</v>
+      </c>
+      <c r="K68" s="3">
         <v>50</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M68" s="3"/>
+      <c r="L68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1000</v>
+      </c>
       <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>10066</v>
       </c>
@@ -5468,37 +5618,38 @@
       <c r="C69" s="3">
         <v>10067</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
       <c r="H69" s="3">
         <v>1</v>
       </c>
       <c r="I69" s="3">
-        <v>10304</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3">
+        <v>10303</v>
+      </c>
+      <c r="K69" s="3">
         <v>50</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L69" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M69" s="3"/>
+      <c r="L69" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1000</v>
+      </c>
       <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>10067</v>
       </c>
@@ -5508,37 +5659,38 @@
       <c r="C70" s="3">
         <v>10068</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
       <c r="H70" s="3">
         <v>1</v>
       </c>
       <c r="I70" s="3">
-        <v>10305</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3">
+        <v>10304</v>
+      </c>
+      <c r="K70" s="3">
         <v>50</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M70" s="3"/>
+      <c r="L70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1000</v>
+      </c>
       <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10068</v>
       </c>
@@ -5548,37 +5700,38 @@
       <c r="C71" s="3">
         <v>10069</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
       <c r="H71" s="3">
         <v>1</v>
       </c>
       <c r="I71" s="3">
-        <v>10306</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3">
+        <v>10305</v>
+      </c>
+      <c r="K71" s="3">
         <v>50</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L71" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M71" s="3"/>
+      <c r="L71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1000</v>
+      </c>
       <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>10069</v>
       </c>
@@ -5588,37 +5741,38 @@
       <c r="C72" s="3">
         <v>10070</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
       <c r="I72" s="3">
-        <v>10307</v>
+        <v>1</v>
       </c>
       <c r="J72" s="3">
+        <v>10306</v>
+      </c>
+      <c r="K72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M72" s="3"/>
+      <c r="L72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1000</v>
+      </c>
       <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>10070</v>
       </c>
@@ -5628,37 +5782,38 @@
       <c r="C73" s="3">
         <v>10071</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
       <c r="H73" s="3">
         <v>1</v>
       </c>
       <c r="I73" s="3">
-        <v>10308</v>
+        <v>1</v>
       </c>
       <c r="J73" s="3">
+        <v>10307</v>
+      </c>
+      <c r="K73" s="3">
         <v>50</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L73" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M73" s="3"/>
+      <c r="L73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1000</v>
+      </c>
       <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>10071</v>
       </c>
@@ -5668,37 +5823,38 @@
       <c r="C74" s="3">
         <v>10072</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
       <c r="H74" s="3">
         <v>1</v>
       </c>
       <c r="I74" s="3">
-        <v>10309</v>
+        <v>1</v>
       </c>
       <c r="J74" s="3">
+        <v>10308</v>
+      </c>
+      <c r="K74" s="3">
         <v>50</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M74" s="3"/>
+      <c r="L74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="3">
+        <v>1000</v>
+      </c>
       <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>10072</v>
       </c>
@@ -5708,35 +5864,38 @@
       <c r="C75" s="3">
         <v>10073</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
       <c r="J75" s="3">
+        <v>10309</v>
+      </c>
+      <c r="K75" s="3">
         <v>50</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L75" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M75" s="3"/>
+      <c r="L75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1000</v>
+      </c>
       <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>10073</v>
       </c>
@@ -5746,37 +5905,36 @@
       <c r="C76" s="3">
         <v>10074</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76" s="3">
-        <v>30301</v>
-      </c>
-      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
         <v>50</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M76" s="3"/>
+      <c r="L76" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1000</v>
+      </c>
       <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>10074</v>
       </c>
@@ -5786,37 +5944,38 @@
       <c r="C77" s="3">
         <v>10075</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
       <c r="H77" s="3">
         <v>1</v>
       </c>
       <c r="I77" s="3">
-        <v>30302</v>
+        <v>1</v>
       </c>
       <c r="J77" s="3">
+        <v>30301</v>
+      </c>
+      <c r="K77" s="3">
         <v>50</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L77" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M77" s="3"/>
+      <c r="L77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1000</v>
+      </c>
       <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>10075</v>
       </c>
@@ -5826,37 +5985,38 @@
       <c r="C78" s="3">
         <v>10076</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
       <c r="H78" s="3">
         <v>1</v>
       </c>
       <c r="I78" s="3">
-        <v>30303</v>
+        <v>1</v>
       </c>
       <c r="J78" s="3">
+        <v>30302</v>
+      </c>
+      <c r="K78" s="3">
         <v>50</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L78" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M78" s="3"/>
+      <c r="L78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1000</v>
+      </c>
       <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>10076</v>
       </c>
@@ -5866,37 +6026,38 @@
       <c r="C79" s="3">
         <v>10077</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
       <c r="H79" s="3">
         <v>1</v>
       </c>
       <c r="I79" s="3">
-        <v>30304</v>
+        <v>1</v>
       </c>
       <c r="J79" s="3">
+        <v>30303</v>
+      </c>
+      <c r="K79" s="3">
         <v>50</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M79" s="3"/>
+      <c r="L79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1000</v>
+      </c>
       <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>10077</v>
       </c>
@@ -5906,37 +6067,38 @@
       <c r="C80" s="3">
         <v>10078</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
       <c r="H80" s="3">
         <v>1</v>
       </c>
       <c r="I80" s="3">
-        <v>30305</v>
+        <v>1</v>
       </c>
       <c r="J80" s="3">
+        <v>30304</v>
+      </c>
+      <c r="K80" s="3">
         <v>50</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M80" s="3"/>
+      <c r="L80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" s="3">
+        <v>1000</v>
+      </c>
       <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>10078</v>
       </c>
@@ -5946,37 +6108,38 @@
       <c r="C81" s="3">
         <v>10079</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
       <c r="H81" s="3">
         <v>1</v>
       </c>
       <c r="I81" s="3">
-        <v>30306</v>
+        <v>1</v>
       </c>
       <c r="J81" s="3">
+        <v>30305</v>
+      </c>
+      <c r="K81" s="3">
         <v>50</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M81" s="3"/>
+      <c r="L81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1000</v>
+      </c>
       <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>10079</v>
       </c>
@@ -5986,37 +6149,38 @@
       <c r="C82" s="3">
         <v>10080</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H82" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I82" s="3">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="J82" s="3">
+        <v>30306</v>
+      </c>
+      <c r="K82" s="3">
         <v>50</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M82" s="3"/>
+      <c r="L82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1000</v>
+      </c>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>10080</v>
       </c>
@@ -6026,34 +6190,38 @@
       <c r="C83" s="3">
         <v>10081</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="H83" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I83" s="3">
+        <v>9</v>
       </c>
       <c r="J83" s="3">
+        <v>202</v>
+      </c>
+      <c r="K83" s="3">
         <v>50</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M83" s="3"/>
+      <c r="L83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1000</v>
+      </c>
       <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>10081</v>
       </c>
@@ -6063,37 +6231,35 @@
       <c r="C84" s="3">
         <v>10082</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
       </c>
       <c r="I84" s="3">
-        <v>30307</v>
-      </c>
-      <c r="J84" s="3">
+        <v>3</v>
+      </c>
+      <c r="K84" s="3">
         <v>50</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M84" s="3"/>
+      <c r="L84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M84" s="3">
+        <v>1000</v>
+      </c>
       <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>10082</v>
       </c>
@@ -6103,37 +6269,38 @@
       <c r="C85" s="3">
         <v>10083</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
       </c>
       <c r="I85" s="3">
-        <v>1501005</v>
+        <v>1</v>
       </c>
       <c r="J85" s="3">
+        <v>30307</v>
+      </c>
+      <c r="K85" s="3">
         <v>50</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L85" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M85" s="3"/>
+      <c r="L85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1000</v>
+      </c>
       <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>10083</v>
       </c>
@@ -6143,37 +6310,38 @@
       <c r="C86" s="3">
         <v>10084</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
       <c r="H86" s="3">
         <v>1</v>
       </c>
       <c r="I86" s="3">
-        <v>1501006</v>
+        <v>1</v>
       </c>
       <c r="J86" s="3">
+        <v>41005</v>
+      </c>
+      <c r="K86" s="3">
         <v>50</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M86" s="3"/>
+      <c r="L86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="3">
+        <v>1000</v>
+      </c>
       <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>10084</v>
       </c>
@@ -6183,37 +6351,38 @@
       <c r="C87" s="3">
         <v>10085</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
       <c r="H87" s="3">
         <v>1</v>
       </c>
       <c r="I87" s="3">
-        <v>1501007</v>
+        <v>1</v>
       </c>
       <c r="J87" s="3">
+        <v>41006</v>
+      </c>
+      <c r="K87" s="3">
         <v>50</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M87" s="3"/>
+      <c r="L87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="3">
+        <v>1000</v>
+      </c>
       <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>10085</v>
       </c>
@@ -6223,37 +6392,38 @@
       <c r="C88" s="3">
         <v>10086</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>113</v>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="H88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J88" s="3">
+        <v>41007</v>
+      </c>
+      <c r="K88" s="3">
         <v>50</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M88" s="3"/>
+      <c r="L88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" s="3">
+        <v>1000</v>
+      </c>
       <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>10086</v>
       </c>
@@ -6263,37 +6433,38 @@
       <c r="C89" s="3">
         <v>10087</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
       </c>
       <c r="I89" s="3">
-        <v>30308</v>
+        <v>2</v>
       </c>
       <c r="J89" s="3">
+        <v>101</v>
+      </c>
+      <c r="K89" s="3">
         <v>50</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M89" s="3"/>
+      <c r="L89" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="3">
+        <v>1000</v>
+      </c>
       <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>10087</v>
       </c>
@@ -6303,37 +6474,38 @@
       <c r="C90" s="3">
         <v>10088</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
       <c r="H90" s="3">
         <v>1</v>
       </c>
       <c r="I90" s="3">
-        <v>30309</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3">
+        <v>30308</v>
+      </c>
+      <c r="K90" s="3">
         <v>50</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L90" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M90" s="3"/>
+      <c r="L90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M90" s="3">
+        <v>1000</v>
+      </c>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>10088</v>
       </c>
@@ -6343,35 +6515,38 @@
       <c r="C91" s="3">
         <v>10089</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>92</v>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H91" s="3">
-        <v>30</v>
-      </c>
-      <c r="I91" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
       <c r="J91" s="3">
+        <v>30309</v>
+      </c>
+      <c r="K91" s="3">
         <v>50</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M91" s="3"/>
+      <c r="L91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M91" s="3">
+        <v>1000</v>
+      </c>
       <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>10089</v>
       </c>
@@ -6381,37 +6556,36 @@
       <c r="C92" s="3">
         <v>10090</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>93</v>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
       </c>
       <c r="I92" s="3">
-        <v>10401</v>
-      </c>
-      <c r="J92" s="3">
-        <v>60</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M92" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3">
+        <v>50</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1000</v>
+      </c>
       <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>10090</v>
       </c>
@@ -6421,37 +6595,38 @@
       <c r="C93" s="3">
         <v>10091</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>94</v>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
       <c r="H93" s="3">
         <v>1</v>
       </c>
       <c r="I93" s="3">
-        <v>10402</v>
+        <v>1</v>
       </c>
       <c r="J93" s="3">
+        <v>10401</v>
+      </c>
+      <c r="K93" s="3">
         <v>60</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M93" s="3"/>
+      <c r="L93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M93" s="3">
+        <v>1000</v>
+      </c>
       <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>10091</v>
       </c>
@@ -6461,37 +6636,38 @@
       <c r="C94" s="3">
         <v>10092</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>95</v>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
       <c r="H94" s="3">
         <v>1</v>
       </c>
       <c r="I94" s="3">
-        <v>10403</v>
+        <v>1</v>
       </c>
       <c r="J94" s="3">
+        <v>10402</v>
+      </c>
+      <c r="K94" s="3">
         <v>60</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M94" s="3"/>
+      <c r="L94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M94" s="3">
+        <v>1000</v>
+      </c>
       <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>10092</v>
       </c>
@@ -6501,37 +6677,38 @@
       <c r="C95" s="3">
         <v>10093</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>96</v>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="F95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
       <c r="H95" s="3">
         <v>1</v>
       </c>
       <c r="I95" s="3">
-        <v>10404</v>
+        <v>1</v>
       </c>
       <c r="J95" s="3">
+        <v>10403</v>
+      </c>
+      <c r="K95" s="3">
         <v>60</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M95" s="3"/>
+      <c r="L95" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M95" s="3">
+        <v>1000</v>
+      </c>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>10093</v>
       </c>
@@ -6541,37 +6718,38 @@
       <c r="C96" s="3">
         <v>10094</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>97</v>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
       <c r="H96" s="3">
         <v>1</v>
       </c>
       <c r="I96" s="3">
-        <v>10405</v>
+        <v>1</v>
       </c>
       <c r="J96" s="3">
+        <v>10404</v>
+      </c>
+      <c r="K96" s="3">
         <v>60</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M96" s="3"/>
+      <c r="L96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M96" s="3">
+        <v>1000</v>
+      </c>
       <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>10094</v>
       </c>
@@ -6581,37 +6759,38 @@
       <c r="C97" s="3">
         <v>10095</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>98</v>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
       <c r="H97" s="3">
         <v>1</v>
       </c>
       <c r="I97" s="3">
-        <v>10406</v>
+        <v>1</v>
       </c>
       <c r="J97" s="3">
+        <v>10405</v>
+      </c>
+      <c r="K97" s="3">
         <v>60</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L97" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M97" s="3"/>
+      <c r="L97" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M97" s="3">
+        <v>1000</v>
+      </c>
       <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>10095</v>
       </c>
@@ -6621,37 +6800,38 @@
       <c r="C98" s="3">
         <v>10096</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>99</v>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="F98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
       <c r="H98" s="3">
         <v>1</v>
       </c>
       <c r="I98" s="3">
-        <v>10407</v>
+        <v>1</v>
       </c>
       <c r="J98" s="3">
+        <v>10406</v>
+      </c>
+      <c r="K98" s="3">
         <v>60</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M98" s="3"/>
+      <c r="L98" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M98" s="3">
+        <v>1000</v>
+      </c>
       <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>10096</v>
       </c>
@@ -6661,37 +6841,38 @@
       <c r="C99" s="3">
         <v>10097</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>100</v>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
       <c r="H99" s="3">
         <v>1</v>
       </c>
       <c r="I99" s="3">
-        <v>10408</v>
+        <v>1</v>
       </c>
       <c r="J99" s="3">
+        <v>10407</v>
+      </c>
+      <c r="K99" s="3">
         <v>60</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L99" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M99" s="3"/>
+      <c r="L99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M99" s="3">
+        <v>1000</v>
+      </c>
       <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>10097</v>
       </c>
@@ -6701,37 +6882,38 @@
       <c r="C100" s="3">
         <v>10098</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>101</v>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
       <c r="H100" s="3">
         <v>1</v>
       </c>
       <c r="I100" s="3">
-        <v>10409</v>
+        <v>1</v>
       </c>
       <c r="J100" s="3">
+        <v>10408</v>
+      </c>
+      <c r="K100" s="3">
         <v>60</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M100" s="3"/>
+      <c r="L100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1000</v>
+      </c>
       <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>10098</v>
       </c>
@@ -6741,37 +6923,38 @@
       <c r="C101" s="3">
         <v>10099</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>106</v>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H101" s="3">
         <v>1</v>
       </c>
       <c r="I101" s="3">
-        <v>30401</v>
+        <v>1</v>
       </c>
       <c r="J101" s="3">
+        <v>10409</v>
+      </c>
+      <c r="K101" s="3">
         <v>60</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M101" s="3"/>
+      <c r="L101" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1000</v>
+      </c>
       <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>10099</v>
       </c>
@@ -6781,37 +6964,38 @@
       <c r="C102" s="3">
         <v>10100</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>107</v>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
       <c r="H102" s="3">
         <v>1</v>
       </c>
       <c r="I102" s="3">
-        <v>30402</v>
+        <v>1</v>
       </c>
       <c r="J102" s="3">
+        <v>30401</v>
+      </c>
+      <c r="K102" s="3">
         <v>60</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="L102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1000</v>
+      </c>
       <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>10100</v>
       </c>
@@ -6821,37 +7005,38 @@
       <c r="C103" s="3">
         <v>10101</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>108</v>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
       <c r="H103" s="3">
         <v>1</v>
       </c>
       <c r="I103" s="3">
-        <v>30403</v>
+        <v>1</v>
       </c>
       <c r="J103" s="3">
+        <v>30402</v>
+      </c>
+      <c r="K103" s="3">
         <v>60</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L103" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M103" s="3"/>
+      <c r="L103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="3">
+        <v>1000</v>
+      </c>
       <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>10101</v>
       </c>
@@ -6861,37 +7046,38 @@
       <c r="C104" s="3">
         <v>10102</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>109</v>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
       <c r="H104" s="3">
         <v>1</v>
       </c>
       <c r="I104" s="3">
-        <v>30404</v>
+        <v>1</v>
       </c>
       <c r="J104" s="3">
+        <v>30403</v>
+      </c>
+      <c r="K104" s="3">
         <v>60</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L104" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M104" s="3"/>
+      <c r="L104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="3">
+        <v>1000</v>
+      </c>
       <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>10102</v>
       </c>
@@ -6901,37 +7087,38 @@
       <c r="C105" s="3">
         <v>10103</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>110</v>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F105" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G105" s="3">
-        <v>1</v>
-      </c>
       <c r="H105" s="3">
         <v>1</v>
       </c>
       <c r="I105" s="3">
-        <v>30405</v>
+        <v>1</v>
       </c>
       <c r="J105" s="3">
+        <v>30404</v>
+      </c>
+      <c r="K105" s="3">
         <v>60</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L105" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M105" s="3"/>
+      <c r="L105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105" s="3">
+        <v>1000</v>
+      </c>
       <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>10103</v>
       </c>
@@ -6941,37 +7128,38 @@
       <c r="C106" s="3">
         <v>10104</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G106" s="3">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H106" s="3">
         <v>1</v>
       </c>
       <c r="I106" s="3">
-        <v>10301</v>
+        <v>1</v>
       </c>
       <c r="J106" s="3">
+        <v>30405</v>
+      </c>
+      <c r="K106" s="3">
         <v>60</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M106" s="3"/>
+      <c r="L106" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M106" s="3">
+        <v>1000</v>
+      </c>
       <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>10104</v>
       </c>
@@ -6981,37 +7169,38 @@
       <c r="C107" s="3">
         <v>10105</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G107" s="3">
-        <v>1</v>
-      </c>
       <c r="H107" s="3">
         <v>1</v>
       </c>
       <c r="I107" s="3">
-        <v>10302</v>
+        <v>1</v>
       </c>
       <c r="J107" s="3">
+        <v>10301</v>
+      </c>
+      <c r="K107" s="3">
         <v>60</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M107" s="3"/>
+      <c r="L107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M107" s="3">
+        <v>1000</v>
+      </c>
       <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>10105</v>
       </c>
@@ -7021,37 +7210,38 @@
       <c r="C108" s="3">
         <v>10106</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F108" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
       <c r="H108" s="3">
         <v>1</v>
       </c>
       <c r="I108" s="3">
-        <v>10303</v>
+        <v>1</v>
       </c>
       <c r="J108" s="3">
+        <v>10302</v>
+      </c>
+      <c r="K108" s="3">
         <v>60</v>
       </c>
-      <c r="K108" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L108" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M108" s="3"/>
+      <c r="L108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108" s="3">
+        <v>1000</v>
+      </c>
       <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>10106</v>
       </c>
@@ -7061,37 +7251,38 @@
       <c r="C109" s="3">
         <v>10107</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F109" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
       <c r="H109" s="3">
         <v>1</v>
       </c>
       <c r="I109" s="3">
-        <v>10304</v>
+        <v>1</v>
       </c>
       <c r="J109" s="3">
+        <v>10303</v>
+      </c>
+      <c r="K109" s="3">
         <v>60</v>
       </c>
-      <c r="K109" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L109" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M109" s="3"/>
+      <c r="L109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M109" s="3">
+        <v>1000</v>
+      </c>
       <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>10107</v>
       </c>
@@ -7101,37 +7292,38 @@
       <c r="C110" s="3">
         <v>10108</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G110" s="3">
-        <v>1</v>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H110" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I110" s="3">
-        <v>10305</v>
+        <v>1</v>
       </c>
       <c r="J110" s="3">
+        <v>10304</v>
+      </c>
+      <c r="K110" s="3">
         <v>60</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L110" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M110" s="3"/>
+      <c r="L110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M110" s="3">
+        <v>1000</v>
+      </c>
       <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>10108</v>
       </c>
@@ -7141,37 +7333,38 @@
       <c r="C111" s="3">
         <v>10109</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>126</v>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
       </c>
       <c r="I111" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J111" s="3">
+        <v>10305</v>
+      </c>
+      <c r="K111" s="3">
         <v>60</v>
       </c>
-      <c r="K111" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L111" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M111" s="3"/>
+      <c r="L111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="3">
+        <v>1000</v>
+      </c>
       <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>10109</v>
       </c>
@@ -7181,35 +7374,38 @@
       <c r="C112" s="3">
         <v>10110</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="H112" s="3">
-        <v>5</v>
-      </c>
-      <c r="I112" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
       <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3">
         <v>60</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L112" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M112" s="3"/>
+      <c r="L112" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1000</v>
+      </c>
       <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>10110</v>
       </c>
@@ -7219,37 +7415,36 @@
       <c r="C113" s="3">
         <v>10111</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
       </c>
       <c r="I113" s="3">
-        <v>10305</v>
-      </c>
-      <c r="J113" s="3">
+        <v>5</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3">
         <v>60</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L113" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M113" s="3"/>
+      <c r="L113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="3">
+        <v>1000</v>
+      </c>
       <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>10111</v>
       </c>
@@ -7259,37 +7454,38 @@
       <c r="C114" s="3">
         <v>10112</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F114" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
       <c r="H114" s="3">
         <v>1</v>
       </c>
       <c r="I114" s="3">
-        <v>10306</v>
+        <v>1</v>
       </c>
       <c r="J114" s="3">
+        <v>10305</v>
+      </c>
+      <c r="K114" s="3">
         <v>60</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L114" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M114" s="3"/>
+      <c r="L114" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M114" s="3">
+        <v>1000</v>
+      </c>
       <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>10112</v>
       </c>
@@ -7299,37 +7495,38 @@
       <c r="C115" s="3">
         <v>10113</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F115" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G115" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
       <c r="H115" s="3">
         <v>1</v>
       </c>
       <c r="I115" s="3">
-        <v>10307</v>
+        <v>1</v>
       </c>
       <c r="J115" s="3">
+        <v>10306</v>
+      </c>
+      <c r="K115" s="3">
         <v>60</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L115" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M115" s="3"/>
+      <c r="L115" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1000</v>
+      </c>
       <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>10113</v>
       </c>
@@ -7339,37 +7536,38 @@
       <c r="C116" s="3">
         <v>10114</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
       <c r="H116" s="3">
         <v>1</v>
       </c>
       <c r="I116" s="3">
-        <v>10308</v>
+        <v>1</v>
       </c>
       <c r="J116" s="3">
+        <v>10307</v>
+      </c>
+      <c r="K116" s="3">
         <v>60</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M116" s="3"/>
+      <c r="L116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1000</v>
+      </c>
       <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>10114</v>
       </c>
@@ -7379,37 +7577,38 @@
       <c r="C117" s="3">
         <v>10115</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G117" s="3">
-        <v>1</v>
-      </c>
       <c r="H117" s="3">
         <v>1</v>
       </c>
       <c r="I117" s="3">
-        <v>10309</v>
+        <v>1</v>
       </c>
       <c r="J117" s="3">
+        <v>10308</v>
+      </c>
+      <c r="K117" s="3">
         <v>60</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L117" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M117" s="3"/>
+      <c r="L117" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1000</v>
+      </c>
       <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>10115</v>
       </c>
@@ -7419,35 +7618,38 @@
       <c r="C118" s="3">
         <v>10116</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1</v>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="H118" s="3">
-        <v>4</v>
-      </c>
-      <c r="I118" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
       <c r="J118" s="3">
+        <v>10309</v>
+      </c>
+      <c r="K118" s="3">
         <v>60</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M118" s="3"/>
+      <c r="L118" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M118" s="3">
+        <v>1000</v>
+      </c>
       <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>10116</v>
       </c>
@@ -7457,37 +7659,36 @@
       <c r="C119" s="3">
         <v>10117</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>111</v>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G119" s="3">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
       </c>
       <c r="I119" s="3">
-        <v>30406</v>
-      </c>
-      <c r="J119" s="3">
+        <v>4</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3">
         <v>60</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L119" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M119" s="3"/>
+      <c r="L119" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1000</v>
+      </c>
       <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>10117</v>
       </c>
@@ -7497,37 +7698,38 @@
       <c r="C120" s="3">
         <v>10118</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
       </c>
       <c r="I120" s="3">
-        <v>1501008</v>
+        <v>1</v>
       </c>
       <c r="J120" s="3">
+        <v>30406</v>
+      </c>
+      <c r="K120" s="3">
         <v>60</v>
       </c>
-      <c r="K120" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L120" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M120" s="3"/>
+      <c r="L120" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M120" s="3">
+        <v>1000</v>
+      </c>
       <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>10118</v>
       </c>
@@ -7537,37 +7739,38 @@
       <c r="C121" s="3">
         <v>10119</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G121" s="3">
-        <v>1</v>
-      </c>
       <c r="H121" s="3">
         <v>1</v>
       </c>
       <c r="I121" s="3">
-        <v>1501009</v>
+        <v>1</v>
       </c>
       <c r="J121" s="3">
+        <v>41008</v>
+      </c>
+      <c r="K121" s="3">
         <v>60</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L121" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M121" s="3"/>
+      <c r="L121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M121" s="3">
+        <v>1000</v>
+      </c>
       <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>10119</v>
       </c>
@@ -7577,37 +7780,38 @@
       <c r="C122" s="3">
         <v>10120</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F122" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
       <c r="H122" s="3">
         <v>1</v>
       </c>
       <c r="I122" s="3">
-        <v>1501010</v>
+        <v>1</v>
       </c>
       <c r="J122" s="3">
+        <v>41009</v>
+      </c>
+      <c r="K122" s="3">
         <v>60</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M122" s="3"/>
+      <c r="L122" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1000</v>
+      </c>
       <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>10120</v>
       </c>
@@ -7617,37 +7821,38 @@
       <c r="C123" s="3">
         <v>10121</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>158</v>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="H123" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J123" s="3">
+        <v>41010</v>
+      </c>
+      <c r="K123" s="3">
         <v>60</v>
       </c>
-      <c r="K123" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L123" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M123" s="3"/>
+      <c r="L123" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="3">
+        <v>1000</v>
+      </c>
       <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>10121</v>
       </c>
@@ -7657,37 +7862,38 @@
       <c r="C124" s="3">
         <v>10122</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>112</v>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
       </c>
       <c r="I124" s="3">
-        <v>30407</v>
+        <v>3</v>
       </c>
       <c r="J124" s="3">
+        <v>101</v>
+      </c>
+      <c r="K124" s="3">
         <v>60</v>
       </c>
-      <c r="K124" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L124" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M124" s="3"/>
+      <c r="L124" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M124" s="3">
+        <v>1000</v>
+      </c>
       <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>10122</v>
       </c>
@@ -7697,37 +7903,38 @@
       <c r="C125" s="3">
         <v>10123</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>114</v>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="F125" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
       <c r="H125" s="3">
         <v>1</v>
       </c>
       <c r="I125" s="3">
-        <v>30408</v>
+        <v>1</v>
       </c>
       <c r="J125" s="3">
+        <v>30407</v>
+      </c>
+      <c r="K125" s="3">
         <v>60</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L125" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M125" s="3"/>
+      <c r="L125" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="3">
+        <v>1000</v>
+      </c>
       <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>10123</v>
       </c>
@@ -7737,37 +7944,38 @@
       <c r="C126" s="3">
         <v>10124</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G126" s="3">
-        <v>1</v>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
       </c>
       <c r="I126" s="3">
-        <v>1502001</v>
+        <v>1</v>
       </c>
       <c r="J126" s="3">
+        <v>30408</v>
+      </c>
+      <c r="K126" s="3">
         <v>60</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L126" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M126" s="3"/>
+      <c r="L126" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1000</v>
+      </c>
       <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>10124</v>
       </c>
@@ -7777,37 +7985,38 @@
       <c r="C127" s="3">
         <v>10125</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F127" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
       <c r="H127" s="3">
         <v>1</v>
       </c>
       <c r="I127" s="3">
-        <v>1502002</v>
+        <v>1</v>
       </c>
       <c r="J127" s="3">
+        <v>42001</v>
+      </c>
+      <c r="K127" s="3">
         <v>60</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L127" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M127" s="3"/>
+      <c r="L127" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M127" s="3">
+        <v>1000</v>
+      </c>
       <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>10125</v>
       </c>
@@ -7817,37 +8026,38 @@
       <c r="C128" s="3">
         <v>10126</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F128" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G128" s="3">
-        <v>1</v>
-      </c>
       <c r="H128" s="3">
         <v>1</v>
       </c>
       <c r="I128" s="3">
-        <v>1502003</v>
+        <v>1</v>
       </c>
       <c r="J128" s="3">
+        <v>42002</v>
+      </c>
+      <c r="K128" s="3">
         <v>60</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L128" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M128" s="3"/>
+      <c r="L128" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1000</v>
+      </c>
       <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>10126</v>
       </c>
@@ -7857,37 +8067,38 @@
       <c r="C129" s="3">
         <v>10127</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F129" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
       <c r="H129" s="3">
         <v>1</v>
       </c>
       <c r="I129" s="3">
-        <v>1502004</v>
+        <v>1</v>
       </c>
       <c r="J129" s="3">
+        <v>42003</v>
+      </c>
+      <c r="K129" s="3">
         <v>60</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L129" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M129" s="3"/>
+      <c r="L129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M129" s="3">
+        <v>1000</v>
+      </c>
       <c r="N129" s="3"/>
-    </row>
-    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>10127</v>
       </c>
@@ -7897,37 +8108,38 @@
       <c r="C130" s="3">
         <v>10128</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="4" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G130" s="3">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
       </c>
       <c r="I130" s="3">
-        <v>30409</v>
+        <v>1</v>
       </c>
       <c r="J130" s="3">
+        <v>42004</v>
+      </c>
+      <c r="K130" s="3">
         <v>60</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L130" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M130" s="3"/>
+      <c r="L130" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1000</v>
+      </c>
       <c r="N130" s="3"/>
-    </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>10128</v>
       </c>
@@ -7935,53 +8147,79 @@
         <v>128</v>
       </c>
       <c r="C131" s="3">
+        <v>10129</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1</v>
+      </c>
+      <c r="J131" s="3">
+        <v>30409</v>
+      </c>
+      <c r="K131" s="3">
+        <v>60</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M131" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>10129</v>
+      </c>
+      <c r="B132" s="3">
+        <v>129</v>
+      </c>
+      <c r="C132" s="3">
         <v>-1</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F132" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="G132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3">
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3">
         <v>40</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3">
         <v>60</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L131" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
+      <c r="L132" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M132" s="3">
+        <v>1000</v>
+      </c>
       <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7996,8 +8234,9 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -8012,8 +8251,9 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -8028,8 +8268,9 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -8044,8 +8285,9 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
-    </row>
-    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -8060,8 +8302,9 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
-    </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -8076,8 +8319,9 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
-    </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -8092,8 +8336,9 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
-    </row>
-    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -8108,8 +8353,9 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
-    </row>
-    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8124,8 +8370,9 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
-    </row>
-    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8140,8 +8387,9 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
-    </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8156,8 +8404,9 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
-    </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8172,8 +8421,9 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
-    </row>
-    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8188,8 +8438,9 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
-    </row>
-    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8204,8 +8455,9 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
-    </row>
-    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8220,6 +8472,24 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="323">
   <si>
     <t>sheet名</t>
   </si>
@@ -1173,10 +1173,6 @@
     </r>
   </si>
   <si>
-    <t>神器1神级到2级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁挂机点4-8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1407,10 +1403,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>把唐流雨突破+1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>把于禁升级到1</t>
     </r>
@@ -1462,10 +1454,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>把1张卡牌突破到3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>通过关卡2-9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1740,10 +1728,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵突破-id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵升级-cnt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1984,10 +1968,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>前方的项昆仑又来检测我们的实力了，装备上插槽技能，让他看看我们的进步吧。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>领取宝箱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2095,6 +2075,46 @@
   </si>
   <si>
     <t>技能装备-shlid-cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备上插槽技能，通关1-5，让,曹焱兵看看我们的进步吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有2个2级的神器组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把1张卡牌突破+2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3张突破+1的卡牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再使用牧守令扫荡2次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-swep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍等级达到20级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2677,7 +2697,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
@@ -2738,13 +2758,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34:J34"/>
+      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2784,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>42</v>
@@ -2773,7 +2793,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -2814,13 +2834,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2867,7 +2887,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2917,13 +2937,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2960,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3003,13 +3023,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3046,13 +3066,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3087,13 +3107,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3130,13 +3150,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3146,7 +3166,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>38</v>
@@ -3171,13 +3191,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3187,7 +3207,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>38</v>
@@ -3212,13 +3232,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3230,7 +3250,7 @@
         <v>10105</v>
       </c>
       <c r="K11" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>38</v>
@@ -3255,13 +3275,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3273,7 +3293,7 @@
         <v>10106</v>
       </c>
       <c r="K12" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>38</v>
@@ -3295,16 +3315,16 @@
         <v>10011</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3316,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>38</v>
@@ -3341,13 +3361,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3370,39 +3390,39 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10012</v>
       </c>
       <c r="B15" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>10013</v>
       </c>
       <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1102004</v>
-      </c>
       <c r="K15" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>38</v>
@@ -3413,39 +3433,39 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10013</v>
       </c>
       <c r="B16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <v>10014</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>1102004</v>
+        <v>10108</v>
       </c>
       <c r="K16" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>38</v>
@@ -3456,36 +3476,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10014</v>
       </c>
       <c r="B17" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>10015</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>10108</v>
+        <v>1102004</v>
       </c>
       <c r="K17" s="3">
         <v>15</v>
@@ -3499,27 +3519,27 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10015</v>
       </c>
       <c r="B18" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>10016</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3528,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>1102004</v>
       </c>
       <c r="K18" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>38</v>
@@ -3553,16 +3573,16 @@
         <v>10017</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3596,16 +3616,16 @@
         <v>10018</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3617,7 +3637,7 @@
         <v>30101</v>
       </c>
       <c r="K20" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>38</v>
@@ -3639,16 +3659,16 @@
         <v>10019</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -3660,7 +3680,7 @@
         <v>1013</v>
       </c>
       <c r="K21" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>38</v>
@@ -3682,16 +3702,16 @@
         <v>10020</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -3703,10 +3723,10 @@
         <v>1101001</v>
       </c>
       <c r="K22" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M22" s="3">
         <v>1000</v>
@@ -3725,16 +3745,16 @@
         <v>10021</v>
       </c>
       <c r="D23" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -3746,7 +3766,7 @@
         <v>30102</v>
       </c>
       <c r="K23" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>38</v>
@@ -3768,16 +3788,16 @@
         <v>10022</v>
       </c>
       <c r="D24" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -3809,16 +3829,16 @@
         <v>10023</v>
       </c>
       <c r="D25" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -3830,7 +3850,7 @@
         <v>1102015</v>
       </c>
       <c r="K25" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>38</v>
@@ -3852,28 +3872,28 @@
         <v>10024</v>
       </c>
       <c r="D26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
         <v>1102015</v>
       </c>
       <c r="K26" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>38</v>
@@ -3895,16 +3915,16 @@
         <v>10025</v>
       </c>
       <c r="D27" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3938,16 +3958,16 @@
         <v>10026</v>
       </c>
       <c r="D28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -3979,22 +3999,22 @@
         <v>10027</v>
       </c>
       <c r="D29" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
         <v>1102005</v>
@@ -4022,16 +4042,16 @@
         <v>10028</v>
       </c>
       <c r="D30" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4065,16 +4085,16 @@
         <v>10029</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
@@ -4084,7 +4104,7 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>38</v>
@@ -4109,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -4148,13 +4168,13 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4166,7 +4186,7 @@
         <v>10201</v>
       </c>
       <c r="K33" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>38</v>
@@ -4189,25 +4209,25 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="3">
-        <v>1102004</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>38</v>
@@ -4230,13 +4250,13 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4248,7 +4268,7 @@
         <v>10202</v>
       </c>
       <c r="K35" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>38</v>
@@ -4271,13 +4291,13 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -4289,7 +4309,7 @@
         <v>1102015</v>
       </c>
       <c r="K36" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>38</v>
@@ -4312,13 +4332,13 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4330,7 +4350,7 @@
         <v>10203</v>
       </c>
       <c r="K37" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>38</v>
@@ -4353,13 +4373,13 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4371,7 +4391,7 @@
         <v>10204</v>
       </c>
       <c r="K38" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>38</v>
@@ -4394,13 +4414,13 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -4412,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>38</v>
@@ -4435,13 +4455,13 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4453,7 +4473,7 @@
         <v>10205</v>
       </c>
       <c r="K40" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>38</v>
@@ -4476,13 +4496,13 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4494,7 +4514,7 @@
         <v>10206</v>
       </c>
       <c r="K41" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>38</v>
@@ -4517,13 +4537,13 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4533,7 +4553,7 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>38</v>
@@ -4556,13 +4576,13 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -4574,7 +4594,7 @@
         <v>10207</v>
       </c>
       <c r="K43" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>38</v>
@@ -4597,13 +4617,13 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -4615,7 +4635,7 @@
         <v>20101</v>
       </c>
       <c r="K44" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>38</v>
@@ -4638,13 +4658,13 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -4656,7 +4676,7 @@
         <v>20102</v>
       </c>
       <c r="K45" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>38</v>
@@ -4679,13 +4699,13 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -4697,7 +4717,7 @@
         <v>20103</v>
       </c>
       <c r="K46" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>38</v>
@@ -4720,13 +4740,13 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -4738,7 +4758,7 @@
         <v>2011</v>
       </c>
       <c r="K47" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>38</v>
@@ -4761,13 +4781,13 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4779,7 +4799,7 @@
         <v>201</v>
       </c>
       <c r="K48" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>38</v>
@@ -4802,13 +4822,13 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -4820,7 +4840,7 @@
         <v>2013</v>
       </c>
       <c r="K49" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>38</v>
@@ -4843,23 +4863,23 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>38</v>
@@ -4882,13 +4902,13 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -4900,7 +4920,7 @@
         <v>10208</v>
       </c>
       <c r="K51" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>38</v>
@@ -4923,13 +4943,13 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -4941,7 +4961,7 @@
         <v>10209</v>
       </c>
       <c r="K52" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>38</v>
@@ -4964,13 +4984,13 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -4982,7 +5002,7 @@
         <v>30201</v>
       </c>
       <c r="K53" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>38</v>
@@ -5005,13 +5025,13 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5023,7 +5043,7 @@
         <v>30202</v>
       </c>
       <c r="K54" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>38</v>
@@ -5046,13 +5066,13 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5064,7 +5084,7 @@
         <v>30203</v>
       </c>
       <c r="K55" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>38</v>
@@ -5087,13 +5107,13 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5105,7 +5125,7 @@
         <v>30204</v>
       </c>
       <c r="K56" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>38</v>
@@ -5128,13 +5148,13 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5146,7 +5166,7 @@
         <v>30205</v>
       </c>
       <c r="K57" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>38</v>
@@ -5169,13 +5189,13 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5187,7 +5207,7 @@
         <v>30206</v>
       </c>
       <c r="K58" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>38</v>
@@ -5210,13 +5230,13 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5228,7 +5248,7 @@
         <v>41001</v>
       </c>
       <c r="K59" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>38</v>
@@ -5251,13 +5271,13 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -5269,7 +5289,7 @@
         <v>41002</v>
       </c>
       <c r="K60" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>38</v>
@@ -5292,13 +5312,13 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5310,7 +5330,7 @@
         <v>41003</v>
       </c>
       <c r="K61" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>38</v>
@@ -5333,13 +5353,13 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -5351,7 +5371,7 @@
         <v>41004</v>
       </c>
       <c r="K62" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>38</v>
@@ -5374,13 +5394,13 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5392,7 +5412,7 @@
         <v>101</v>
       </c>
       <c r="K63" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>38</v>
@@ -5415,13 +5435,13 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -5433,7 +5453,7 @@
         <v>30207</v>
       </c>
       <c r="K64" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>38</v>
@@ -5456,13 +5476,13 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -5474,7 +5494,7 @@
         <v>30208</v>
       </c>
       <c r="K65" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>38</v>
@@ -5497,13 +5517,13 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>70</v>
+        <v>240</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -5511,11 +5531,9 @@
       <c r="I66" s="3">
         <v>3</v>
       </c>
-      <c r="J66" s="3">
-        <v>20</v>
-      </c>
+      <c r="J66" s="3"/>
       <c r="K66" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>38</v>
@@ -5537,26 +5555,24 @@
         <v>10065</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>227</v>
+      <c r="E67" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
       </c>
       <c r="I67" s="3">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3">
-        <v>10301</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J67" s="3"/>
       <c r="K67" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>38</v>
@@ -5579,25 +5595,25 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" s="3">
-        <v>10302</v>
+        <v>20</v>
       </c>
       <c r="K68" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>38</v>
@@ -5620,13 +5636,13 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5635,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="K69" s="3">
         <v>50</v>
@@ -5661,13 +5677,13 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -5676,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="3">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="K70" s="3">
         <v>50</v>
@@ -5702,13 +5718,13 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -5717,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="K71" s="3">
         <v>50</v>
@@ -5743,13 +5759,13 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -5758,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3">
-        <v>10306</v>
+        <v>10304</v>
       </c>
       <c r="K72" s="3">
         <v>50</v>
@@ -5784,13 +5800,13 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -5799,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3">
-        <v>10307</v>
+        <v>10305</v>
       </c>
       <c r="K73" s="3">
         <v>50</v>
@@ -5825,13 +5841,13 @@
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -5840,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3">
-        <v>10308</v>
+        <v>10306</v>
       </c>
       <c r="K74" s="3">
         <v>50</v>
@@ -5866,13 +5882,13 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -5881,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3">
-        <v>10309</v>
+        <v>10307</v>
       </c>
       <c r="K75" s="3">
         <v>50</v>
@@ -5907,13 +5923,13 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>102</v>
+        <v>186</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5921,7 +5937,9 @@
       <c r="I76" s="3">
         <v>1</v>
       </c>
-      <c r="J76" s="3"/>
+      <c r="J76" s="3">
+        <v>10308</v>
+      </c>
       <c r="K76" s="3">
         <v>50</v>
       </c>
@@ -5946,13 +5964,13 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -5961,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3">
-        <v>30301</v>
+        <v>10309</v>
       </c>
       <c r="K77" s="3">
         <v>50</v>
@@ -5987,13 +6005,13 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>81</v>
+        <v>250</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6001,9 +6019,7 @@
       <c r="I78" s="3">
         <v>1</v>
       </c>
-      <c r="J78" s="3">
-        <v>30302</v>
-      </c>
+      <c r="J78" s="3"/>
       <c r="K78" s="3">
         <v>50</v>
       </c>
@@ -6028,13 +6044,13 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6043,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="3">
-        <v>30303</v>
+        <v>30301</v>
       </c>
       <c r="K79" s="3">
         <v>50</v>
@@ -6069,13 +6085,13 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -6084,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="3">
-        <v>30304</v>
+        <v>30302</v>
       </c>
       <c r="K80" s="3">
         <v>50</v>
@@ -6110,13 +6126,13 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6125,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="3">
-        <v>30305</v>
+        <v>30303</v>
       </c>
       <c r="K81" s="3">
         <v>50</v>
@@ -6151,13 +6167,13 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -6166,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="3">
-        <v>30306</v>
+        <v>30304</v>
       </c>
       <c r="K82" s="3">
         <v>50</v>
@@ -6191,23 +6207,23 @@
         <v>10081</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>154</v>
+      <c r="E83" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
       </c>
       <c r="I83" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J83" s="3">
-        <v>202</v>
+        <v>30305</v>
       </c>
       <c r="K83" s="3">
         <v>50</v>
@@ -6233,19 +6249,22 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>88</v>
+        <v>193</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
       </c>
       <c r="I84" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J84" s="3">
+        <v>30306</v>
       </c>
       <c r="K84" s="3">
         <v>50</v>
@@ -6270,23 +6289,23 @@
         <v>10083</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>86</v>
+      <c r="E85" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
       </c>
       <c r="I85" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J85" s="3">
-        <v>30307</v>
+        <v>202</v>
       </c>
       <c r="K85" s="3">
         <v>50</v>
@@ -6312,22 +6331,19 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>227</v>
+        <v>166</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="H86" s="3">
         <v>1</v>
       </c>
       <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3">
-        <v>41005</v>
+        <v>3</v>
       </c>
       <c r="K86" s="3">
         <v>50</v>
@@ -6353,13 +6369,13 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>227</v>
+        <v>86</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H87" s="3">
         <v>1</v>
@@ -6368,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3">
-        <v>41006</v>
+        <v>30307</v>
       </c>
       <c r="K87" s="3">
         <v>50</v>
@@ -6394,13 +6410,13 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
@@ -6409,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3">
-        <v>41007</v>
+        <v>41005</v>
       </c>
       <c r="K88" s="3">
         <v>50</v>
@@ -6435,22 +6451,22 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>113</v>
+        <v>163</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
       </c>
       <c r="I89" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" s="3">
-        <v>101</v>
+        <v>41006</v>
       </c>
       <c r="K89" s="3">
         <v>50</v>
@@ -6476,13 +6492,13 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>222</v>
+        <v>91</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -6491,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3">
-        <v>30308</v>
+        <v>41007</v>
       </c>
       <c r="K90" s="3">
         <v>50</v>
@@ -6517,22 +6533,22 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="H91" s="3">
         <v>1</v>
       </c>
       <c r="I91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" s="3">
-        <v>30309</v>
+        <v>2</v>
       </c>
       <c r="K91" s="3">
         <v>50</v>
@@ -6558,21 +6574,23 @@
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>92</v>
+        <v>195</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
       </c>
       <c r="I92" s="3">
-        <v>30</v>
-      </c>
-      <c r="J92" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="3">
+        <v>30308</v>
+      </c>
       <c r="K92" s="3">
         <v>50</v>
       </c>
@@ -6597,13 +6615,13 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -6612,10 +6630,10 @@
         <v>1</v>
       </c>
       <c r="J93" s="3">
-        <v>10401</v>
+        <v>30309</v>
       </c>
       <c r="K93" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>38</v>
@@ -6638,25 +6656,23 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="H94" s="3">
         <v>1</v>
       </c>
       <c r="I94" s="3">
-        <v>1</v>
-      </c>
-      <c r="J94" s="3">
-        <v>10402</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J94" s="3"/>
       <c r="K94" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>38</v>
@@ -6679,13 +6695,13 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
@@ -6694,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="3">
-        <v>10403</v>
+        <v>10401</v>
       </c>
       <c r="K95" s="3">
         <v>60</v>
@@ -6720,13 +6736,13 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
@@ -6735,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3">
-        <v>10404</v>
+        <v>10402</v>
       </c>
       <c r="K96" s="3">
         <v>60</v>
@@ -6761,13 +6777,13 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -6776,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="3">
-        <v>10405</v>
+        <v>10403</v>
       </c>
       <c r="K97" s="3">
         <v>60</v>
@@ -6802,13 +6818,13 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
@@ -6817,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3">
-        <v>10406</v>
+        <v>10404</v>
       </c>
       <c r="K98" s="3">
         <v>60</v>
@@ -6843,13 +6859,13 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
@@ -6858,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3">
-        <v>10407</v>
+        <v>10405</v>
       </c>
       <c r="K99" s="3">
         <v>60</v>
@@ -6884,13 +6900,13 @@
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
@@ -6899,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="3">
-        <v>10408</v>
+        <v>10406</v>
       </c>
       <c r="K100" s="3">
         <v>60</v>
@@ -6925,13 +6941,13 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H101" s="3">
         <v>1</v>
@@ -6940,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="3">
-        <v>10409</v>
+        <v>10407</v>
       </c>
       <c r="K101" s="3">
         <v>60</v>
@@ -6966,13 +6982,13 @@
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H102" s="3">
         <v>1</v>
@@ -6981,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="3">
-        <v>30401</v>
+        <v>10408</v>
       </c>
       <c r="K102" s="3">
         <v>60</v>
@@ -7007,13 +7023,13 @@
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -7022,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="3">
-        <v>30402</v>
+        <v>10409</v>
       </c>
       <c r="K103" s="3">
         <v>60</v>
@@ -7048,13 +7064,13 @@
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
@@ -7063,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="3">
-        <v>30403</v>
+        <v>30401</v>
       </c>
       <c r="K104" s="3">
         <v>60</v>
@@ -7089,13 +7105,13 @@
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -7104,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3">
-        <v>30404</v>
+        <v>30402</v>
       </c>
       <c r="K105" s="3">
         <v>60</v>
@@ -7130,13 +7146,13 @@
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H106" s="3">
         <v>1</v>
@@ -7145,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3">
-        <v>30405</v>
+        <v>30403</v>
       </c>
       <c r="K106" s="3">
         <v>60</v>
@@ -7171,13 +7187,13 @@
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>115</v>
+        <v>209</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H107" s="3">
         <v>1</v>
@@ -7186,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3">
-        <v>10301</v>
+        <v>30404</v>
       </c>
       <c r="K107" s="3">
         <v>60</v>
@@ -7212,13 +7228,13 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>116</v>
+        <v>210</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
@@ -7227,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3">
-        <v>10302</v>
+        <v>30405</v>
       </c>
       <c r="K108" s="3">
         <v>60</v>
@@ -7253,13 +7269,13 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -7268,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="K109" s="3">
         <v>60</v>
@@ -7294,13 +7310,13 @@
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
@@ -7309,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="3">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="K110" s="3">
         <v>60</v>
@@ -7335,22 +7351,22 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>125</v>
+        <v>261</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
       </c>
       <c r="I111" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J111" s="3">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="K111" s="3">
         <v>60</v>
@@ -7376,13 +7392,13 @@
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>126</v>
+        <v>261</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
@@ -7391,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3">
-        <v>1</v>
+        <v>10304</v>
       </c>
       <c r="K112" s="3">
         <v>60</v>
@@ -7417,21 +7433,23 @@
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
       </c>
       <c r="I113" s="3">
-        <v>5</v>
-      </c>
-      <c r="J113" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="J113" s="3">
+        <v>10305</v>
+      </c>
       <c r="K113" s="3">
         <v>60</v>
       </c>
@@ -7456,13 +7474,13 @@
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>119</v>
+        <v>252</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -7471,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3">
-        <v>10305</v>
+        <v>1</v>
       </c>
       <c r="K114" s="3">
         <v>60</v>
@@ -7497,23 +7515,21 @@
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>227</v>
+        <v>253</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
-      </c>
-      <c r="J115" s="3">
-        <v>10306</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J115" s="3"/>
       <c r="K115" s="3">
         <v>60</v>
       </c>
@@ -7538,13 +7554,13 @@
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H116" s="3">
         <v>1</v>
@@ -7553,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="3">
-        <v>10307</v>
+        <v>10305</v>
       </c>
       <c r="K116" s="3">
         <v>60</v>
@@ -7579,13 +7595,13 @@
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
@@ -7594,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3">
-        <v>10308</v>
+        <v>10306</v>
       </c>
       <c r="K117" s="3">
         <v>60</v>
@@ -7620,13 +7636,13 @@
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -7635,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="3">
-        <v>10309</v>
+        <v>10307</v>
       </c>
       <c r="K118" s="3">
         <v>60</v>
@@ -7661,21 +7677,23 @@
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
       </c>
       <c r="I119" s="3">
-        <v>4</v>
-      </c>
-      <c r="J119" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J119" s="3">
+        <v>10308</v>
+      </c>
       <c r="K119" s="3">
         <v>60</v>
       </c>
@@ -7700,13 +7718,13 @@
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -7715,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3">
-        <v>30406</v>
+        <v>10309</v>
       </c>
       <c r="K120" s="3">
         <v>60</v>
@@ -7741,23 +7759,21 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>227</v>
+        <v>123</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
       </c>
       <c r="I121" s="3">
-        <v>1</v>
-      </c>
-      <c r="J121" s="3">
-        <v>41008</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J121" s="3"/>
       <c r="K121" s="3">
         <v>60</v>
       </c>
@@ -7782,13 +7798,13 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>227</v>
+        <v>111</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -7797,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="J122" s="3">
-        <v>41009</v>
+        <v>30406</v>
       </c>
       <c r="K122" s="3">
         <v>60</v>
@@ -7823,13 +7839,13 @@
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>105</v>
+        <v>262</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -7838,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3">
-        <v>41010</v>
+        <v>41008</v>
       </c>
       <c r="K123" s="3">
         <v>60</v>
@@ -7864,22 +7880,22 @@
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
       </c>
       <c r="I124" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" s="3">
-        <v>101</v>
+        <v>41009</v>
       </c>
       <c r="K124" s="3">
         <v>60</v>
@@ -7905,13 +7921,13 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>222</v>
+        <v>262</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -7920,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3">
-        <v>30407</v>
+        <v>41010</v>
       </c>
       <c r="K125" s="3">
         <v>60</v>
@@ -7946,22 +7962,22 @@
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>222</v>
+        <v>155</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
       </c>
       <c r="I126" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" s="3">
-        <v>30408</v>
+        <v>101</v>
       </c>
       <c r="K126" s="3">
         <v>60</v>
@@ -7986,14 +8002,14 @@
         <v>10125</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="4" t="s">
-        <v>266</v>
+      <c r="E127" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>227</v>
+        <v>112</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -8002,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="3">
-        <v>42001</v>
+        <v>30407</v>
       </c>
       <c r="K127" s="3">
         <v>60</v>
@@ -8027,14 +8043,14 @@
         <v>10126</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="4" t="s">
-        <v>266</v>
+      <c r="E128" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>227</v>
+        <v>113</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -8043,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="3">
-        <v>42002</v>
+        <v>30408</v>
       </c>
       <c r="K128" s="3">
         <v>60</v>
@@ -8069,13 +8085,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -8084,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3">
-        <v>42003</v>
+        <v>42001</v>
       </c>
       <c r="K129" s="3">
         <v>60</v>
@@ -8110,13 +8126,13 @@
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -8125,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3">
-        <v>42004</v>
+        <v>42002</v>
       </c>
       <c r="K130" s="3">
         <v>60</v>
@@ -8150,14 +8166,14 @@
         <v>10129</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
-        <v>217</v>
+      <c r="E131" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>222</v>
+        <v>130</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -8166,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3">
-        <v>30409</v>
+        <v>42003</v>
       </c>
       <c r="K131" s="3">
         <v>60</v>
@@ -8188,25 +8204,27 @@
         <v>129</v>
       </c>
       <c r="C132" s="3">
-        <v>-1</v>
+        <v>10130</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3" t="s">
-        <v>245</v>
+      <c r="E132" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>156</v>
+        <v>131</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
       </c>
       <c r="I132" s="3">
-        <v>40</v>
-      </c>
-      <c r="J132" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J132" s="3">
+        <v>42004</v>
+      </c>
       <c r="K132" s="3">
         <v>60</v>
       </c>
@@ -8220,36 +8238,82 @@
       <c r="O132" s="3"/>
     </row>
     <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="3">
+        <v>10130</v>
+      </c>
+      <c r="B133" s="3">
+        <v>130</v>
+      </c>
+      <c r="C133" s="3">
+        <v>10131</v>
+      </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1</v>
+      </c>
+      <c r="J133" s="3">
+        <v>30409</v>
+      </c>
+      <c r="K133" s="3">
+        <v>60</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M133" s="3">
+        <v>1000</v>
+      </c>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
     </row>
     <row r="134" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="3">
+        <v>10131</v>
+      </c>
+      <c r="B134" s="3">
+        <v>131</v>
+      </c>
+      <c r="C134" s="3">
+        <v>-1</v>
+      </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3">
+        <v>40</v>
+      </c>
       <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
+      <c r="K134" s="3">
+        <v>60</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M134" s="3">
+        <v>1000</v>
+      </c>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
     </row>
@@ -8491,6 +8555,40 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
+    <row r="149" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="324">
   <si>
     <t>sheet名</t>
   </si>
@@ -1498,9 +1498,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>挂机1-3</t>
-  </si>
-  <si>
     <t>升级卡牌</t>
   </si>
   <si>
@@ -1755,9 +1752,6 @@
     <t>兑换一次技能</t>
   </si>
   <si>
-    <t>挂机1-1</t>
-  </si>
-  <si>
     <t>挂机1-2</t>
   </si>
   <si>
@@ -1768,9 +1762,6 @@
   </si>
   <si>
     <t>养精蓄锐</t>
-  </si>
-  <si>
-    <t>关卡2-1</t>
   </si>
   <si>
     <t>关卡2-2</t>
@@ -2094,27 +2085,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再使用牧守令扫荡2次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-swep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍等级达到20级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机1-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机1-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡2-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>拥有3张突破+1的卡牌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵突破-cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再使用牧守令扫荡2次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机派遣-swep</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍等级达到20级</t>
+    <t>卡牌升级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2697,7 +2704,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
@@ -2761,10 +2768,10 @@
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="E95" sqref="E95:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2784,7 +2791,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>42</v>
@@ -2793,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -2834,13 +2841,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2887,7 +2894,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2937,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2980,13 +2987,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3023,13 +3030,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3066,13 +3073,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3107,13 +3114,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3150,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>141</v>
@@ -3191,13 +3198,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3232,13 +3239,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3275,13 +3282,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3318,13 +3325,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3361,13 +3368,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3404,13 +3411,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3447,13 +3454,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3490,13 +3497,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3533,13 +3540,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3576,13 +3583,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3618,14 +3625,14 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>237</v>
+      <c r="E20" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3662,13 +3669,13 @@
         <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -3705,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -3726,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M22" s="3">
         <v>1000</v>
@@ -3748,13 +3755,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -3791,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -3832,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -3875,13 +3882,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -3917,14 +3924,14 @@
       <c r="D27" s="3">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>156</v>
+      <c r="E27" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>134</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3961,13 +3968,13 @@
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -4002,13 +4009,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4045,13 +4052,13 @@
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4088,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>136</v>
@@ -4129,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>137</v>
@@ -4167,14 +4174,14 @@
         <v>10031</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>242</v>
+      <c r="E33" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4209,13 +4216,13 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4250,13 +4257,13 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4291,13 +4298,13 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -4332,13 +4339,13 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4373,13 +4380,13 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4413,14 +4420,14 @@
         <v>10037</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>244</v>
+      <c r="E39" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -4455,13 +4462,13 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4496,13 +4503,13 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4537,13 +4544,13 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4576,13 +4583,13 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -4617,13 +4624,13 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -4658,13 +4665,13 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -4699,13 +4706,13 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -4740,7 +4747,7 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>146</v>
@@ -4781,13 +4788,13 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4822,7 +4829,7 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>147</v>
@@ -4863,13 +4870,13 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -4902,13 +4909,13 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -4943,13 +4950,13 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -4984,13 +4991,13 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5025,13 +5032,13 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5066,13 +5073,13 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5107,13 +5114,13 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5148,13 +5155,13 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5189,13 +5196,13 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5230,13 +5237,13 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5271,13 +5278,13 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -5312,13 +5319,13 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5353,13 +5360,13 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -5394,7 +5401,7 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>69</v>
@@ -5435,13 +5442,13 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -5476,13 +5483,13 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -5517,13 +5524,13 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -5556,10 +5563,10 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>143</v>
@@ -5595,13 +5602,13 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -5636,13 +5643,13 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5677,13 +5684,13 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -5718,13 +5725,13 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -5759,13 +5766,13 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -5800,13 +5807,13 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -5841,13 +5848,13 @@
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -5882,13 +5889,13 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -5923,13 +5930,13 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5964,13 +5971,13 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6005,13 +6012,13 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6044,13 +6051,13 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6085,13 +6092,13 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -6126,13 +6133,13 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6167,13 +6174,13 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -6208,13 +6215,13 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -6249,13 +6256,13 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
@@ -6290,13 +6297,13 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
@@ -6331,13 +6338,13 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H86" s="3">
         <v>1</v>
@@ -6369,13 +6376,13 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H87" s="3">
         <v>1</v>
@@ -6410,13 +6417,13 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
@@ -6451,13 +6458,13 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
@@ -6492,13 +6499,13 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -6533,13 +6540,13 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H91" s="3">
         <v>1</v>
@@ -6574,13 +6581,13 @@
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
@@ -6615,13 +6622,13 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -6656,7 +6663,7 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>92</v>
@@ -6695,13 +6702,13 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
@@ -6736,13 +6743,13 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>94</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
@@ -6777,13 +6784,13 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -6818,13 +6825,13 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
@@ -6859,13 +6866,13 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
@@ -6900,13 +6907,13 @@
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
@@ -6941,13 +6948,13 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H101" s="3">
         <v>1</v>
@@ -6982,13 +6989,13 @@
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="3">
         <v>1</v>
@@ -7023,13 +7030,13 @@
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -7064,13 +7071,13 @@
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
@@ -7105,13 +7112,13 @@
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -7146,13 +7153,13 @@
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H106" s="3">
         <v>1</v>
@@ -7187,13 +7194,13 @@
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H107" s="3">
         <v>1</v>
@@ -7228,13 +7235,13 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
@@ -7269,13 +7276,13 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -7310,13 +7317,13 @@
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>115</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
@@ -7351,13 +7358,13 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -7392,13 +7399,13 @@
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
@@ -7433,7 +7440,7 @@
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>124</v>
@@ -7474,13 +7481,13 @@
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -7515,7 +7522,7 @@
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>127</v>
@@ -7560,7 +7567,7 @@
         <v>118</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H116" s="3">
         <v>1</v>
@@ -7601,7 +7608,7 @@
         <v>119</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
@@ -7642,7 +7649,7 @@
         <v>120</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -7683,7 +7690,7 @@
         <v>121</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
@@ -7724,7 +7731,7 @@
         <v>122</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -7759,13 +7766,13 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -7798,13 +7805,13 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -7839,13 +7846,13 @@
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -7880,13 +7887,13 @@
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -7921,13 +7928,13 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -7962,7 +7969,7 @@
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>155</v>
@@ -8003,13 +8010,13 @@
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -8044,13 +8051,13 @@
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -8085,13 +8092,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -8126,13 +8133,13 @@
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -8167,13 +8174,13 @@
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -8208,13 +8215,13 @@
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -8249,13 +8256,13 @@
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -8290,7 +8297,7 @@
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>132</v>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C10677-A93A-447D-B79D-4FC9DB8FB517}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2C84A-F314-423A-9B08-C9A16DA5A9AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="138">
   <si>
     <t>sheet名</t>
   </si>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用1次牧守令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>花费道具-id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -436,10 +432,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>初级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>普通关卡3-9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -544,10 +536,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神器-组件-id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -592,6 +580,26 @@
   </si>
   <si>
     <t>守护灵武器强化页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色基础材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用2次加速令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关卡3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通关卡3-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1235,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1313,10 +1321,10 @@
         <v>32</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1369,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.2">
@@ -1425,10 +1433,10 @@
         <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -1439,20 +1447,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f>A5</f>
+        <f t="shared" ref="C4:C19" si="0">A5</f>
         <v>10002</v>
       </c>
       <c r="D4" s="3">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1461,25 +1469,23 @@
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>1604001</v>
+        <v>10301</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>100</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="N4" s="3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="4" t="s">
-        <v>132</v>
+      <c r="Q4" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="R4" s="3">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -1490,45 +1496,45 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C18" si="0">A6</f>
+        <f t="shared" si="0"/>
         <v>10003</v>
       </c>
       <c r="D5" s="3">
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>10306</v>
+        <v>1604001</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>133</v>
+      <c r="Q5" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="R5" s="3">
-        <v>103</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -1546,39 +1552,35 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10309</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="N6" s="3">
-        <v>40</v>
+        <v>3000</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="3">
-        <v>103</v>
-      </c>
+      <c r="Q6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1595,13 +1597,13 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1609,21 +1611,25 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>10306</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="N7" s="3">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1640,10 +1646,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>90</v>
@@ -1655,20 +1661,20 @@
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>10312</v>
+        <v>10309</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="N8" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R8" s="3">
         <v>103</v>
@@ -1689,35 +1695,33 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>20</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="N9" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -1736,10 +1740,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>90</v>
@@ -1751,23 +1755,23 @@
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>10406</v>
+        <v>10312</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="N10" s="3">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R10" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -1785,13 +1789,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1800,22 +1804,24 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
+        <v>10406</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="8">
-        <v>100</v>
+      <c r="M11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3000</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="3">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1832,13 +1838,13 @@
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1847,24 +1853,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>10409</v>
+        <v>10</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="3">
-        <v>20000</v>
+      <c r="M12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="8">
+        <v>100</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" s="3">
-        <v>104</v>
-      </c>
+      <c r="Q12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1881,10 +1885,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>90</v>
@@ -1896,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>10412</v>
+        <v>10409</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1909,7 +1913,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R13" s="3">
         <v>104</v>
@@ -1930,10 +1934,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>90</v>
@@ -1945,23 +1949,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>10505</v>
+        <v>10412</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N14" s="3">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R14" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -1979,35 +1983,39 @@
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10505</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2024,39 +2032,35 @@
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>10510</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="N16" s="3">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R16" s="3">
-        <v>105</v>
-      </c>
+      <c r="Q16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2073,35 +2077,39 @@
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10510</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2118,39 +2126,35 @@
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>10514</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="N18" s="3">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="3">
-        <v>105</v>
-      </c>
+      <c r="Q18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2160,17 +2164,17 @@
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19" si="1">A20</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10017</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>90</v>
@@ -2182,44 +2186,73 @@
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>10515</v>
+        <v>10514</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N19" s="3">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R19" s="3">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="3">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20" si="1">A21</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10515</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="3">
+        <v>10</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -2320,6 +2353,26 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/majorTask.主线任务.xlsx
+++ b/Excel/镇魂街/majorTask.主线任务.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="405">
   <si>
     <t>sheet名</t>
   </si>
@@ -1569,6 +1569,10 @@
   </si>
   <si>
     <t>玩家等级升到10级</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2201,10 +2205,10 @@
   <dimension ref="A1:T155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3658,7 +3662,7 @@
         <v>85</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
